--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\anomaly\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\anomaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEC28E8-735F-4305-B6E8-4FFD10A4DCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D21C6-7B00-4CB6-A3A5-AD1799B6B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="4650" windowWidth="32595" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15795" yWindow="7425" windowWidth="29625" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2447,18 +2447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acronym_ghz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acronym_hxz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acronym_jkp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>function</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4631,10 +4619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acronym_cz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Operating Cash flows to price (Org, GHZ)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5064,6 +5048,22 @@
   </si>
   <si>
     <t>JKP appear wrong: compute 5-month return (t-7 to t-12) not 6-month return (t-6 to t-12).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ghz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jkp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hxz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5490,9 +5490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N246" sqref="N246"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5517,7 +5517,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -5529,28 +5529,28 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>778</v>
+        <v>1487</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>780</v>
+        <v>1488</v>
       </c>
       <c r="J1" s="18" t="s">
+        <v>1489</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>3</v>
@@ -5576,10 +5576,10 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5587,40 +5587,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="D3" s="1">
         <v>1998</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>717</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5628,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -5643,22 +5643,22 @@
         <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -5681,7 +5681,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -5690,10 +5690,10 @@
         <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5701,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -5716,7 +5716,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -5728,13 +5728,13 @@
         <v>719</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5742,7 +5742,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -5757,7 +5757,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -5769,13 +5769,13 @@
         <v>718</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5783,7 +5783,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -5798,7 +5798,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
@@ -5810,13 +5810,13 @@
         <v>720</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5839,10 +5839,10 @@
         <v>723</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5865,10 +5865,10 @@
         <v>724</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5891,10 +5891,10 @@
         <v>726</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -5917,10 +5917,10 @@
         <v>727</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -5943,10 +5943,10 @@
         <v>725</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -5969,10 +5969,10 @@
         <v>728</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -5980,7 +5980,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -5992,16 +5992,16 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -6009,7 +6009,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -6021,25 +6021,25 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -6050,7 +6050,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D17" s="1">
         <v>2002</v>
@@ -6062,7 +6062,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>30</v>
@@ -6074,10 +6074,10 @@
         <v>33</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -6088,7 +6088,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D18" s="1">
         <v>1986</v>
@@ -6100,13 +6100,13 @@
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -6129,7 +6129,7 @@
         <v>43</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>43</v>
@@ -6138,10 +6138,10 @@
         <v>41</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -6164,7 +6164,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>36</v>
@@ -6176,7 +6176,7 @@
         <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>36</v>
@@ -6202,10 +6202,10 @@
         <v>730</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -6213,10 +6213,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D22" s="1">
         <v>2006</v>
@@ -6228,7 +6228,7 @@
         <v>687</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>687</v>
@@ -6237,10 +6237,10 @@
         <v>705</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -6248,7 +6248,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>47</v>
@@ -6263,7 +6263,7 @@
         <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>53</v>
@@ -6272,13 +6272,13 @@
         <v>54</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -6286,7 +6286,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
@@ -6301,22 +6301,22 @@
         <v>688</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>688</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -6339,7 +6339,7 @@
         <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>49</v>
@@ -6351,13 +6351,13 @@
         <v>52</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -6380,10 +6380,10 @@
         <v>731</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -6406,19 +6406,19 @@
         <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -6441,7 +6441,7 @@
         <v>617</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>617</v>
@@ -6452,7 +6452,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>619</v>
@@ -6467,7 +6467,7 @@
         <v>620</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>620</v>
@@ -6493,7 +6493,7 @@
         <v>621</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>621</v>
@@ -6519,7 +6519,7 @@
         <v>623</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>623</v>
@@ -6530,7 +6530,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>776</v>
@@ -6545,7 +6545,7 @@
         <v>558</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -6553,7 +6553,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>641</v>
@@ -6568,7 +6568,7 @@
         <v>652</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>652</v>
@@ -6594,7 +6594,7 @@
         <v>642</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>642</v>
@@ -6620,7 +6620,7 @@
         <v>645</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>645</v>
@@ -6646,7 +6646,7 @@
         <v>647</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>647</v>
@@ -6672,7 +6672,7 @@
         <v>649</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>649</v>
@@ -6698,7 +6698,7 @@
         <v>651</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>651</v>
@@ -6724,7 +6724,7 @@
         <v>690</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>690</v>
@@ -6733,10 +6733,10 @@
         <v>691</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -6756,25 +6756,25 @@
         <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>693</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -6797,7 +6797,7 @@
         <v>62</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>58</v>
@@ -6809,7 +6809,7 @@
         <v>63</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>58</v>
@@ -6835,7 +6835,7 @@
         <v>655</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>655</v>
@@ -6861,7 +6861,7 @@
         <v>67</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>65</v>
@@ -6873,13 +6873,13 @@
         <v>68</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -6902,7 +6902,7 @@
         <v>684</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>684</v>
@@ -6911,10 +6911,10 @@
         <v>685</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -6922,7 +6922,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>70</v>
@@ -6937,19 +6937,19 @@
         <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>74</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -6957,7 +6957,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>70</v>
@@ -6972,7 +6972,7 @@
         <v>686</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>686</v>
@@ -6981,10 +6981,10 @@
         <v>706</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -7007,7 +7007,7 @@
         <v>72</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>72</v>
@@ -7016,13 +7016,13 @@
         <v>73</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -7045,7 +7045,7 @@
         <v>681</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>681</v>
@@ -7054,13 +7054,13 @@
         <v>77</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -7068,7 +7068,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>76</v>
@@ -7083,7 +7083,7 @@
         <v>80</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>80</v>
@@ -7092,13 +7092,13 @@
         <v>79</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -7106,7 +7106,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>76</v>
@@ -7121,10 +7121,10 @@
         <v>81</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -7147,7 +7147,7 @@
         <v>694</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>694</v>
@@ -7156,13 +7156,13 @@
         <v>82</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -7185,7 +7185,7 @@
         <v>86</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>86</v>
@@ -7194,13 +7194,13 @@
         <v>84</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -7208,7 +7208,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>76</v>
@@ -7223,10 +7223,10 @@
         <v>87</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -7249,7 +7249,7 @@
         <v>625</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>625</v>
@@ -7275,7 +7275,7 @@
         <v>628</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>628</v>
@@ -7301,7 +7301,7 @@
         <v>93</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>90</v>
@@ -7313,13 +7313,13 @@
         <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>88</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -7327,7 +7327,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>97</v>
@@ -7342,7 +7342,7 @@
         <v>98</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>95</v>
@@ -7354,10 +7354,10 @@
         <v>96</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -7365,7 +7365,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>97</v>
@@ -7380,10 +7380,10 @@
         <v>732</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -7391,7 +7391,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>445</v>
@@ -7406,7 +7406,7 @@
         <v>447</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>444</v>
@@ -7418,13 +7418,13 @@
         <v>448</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -7432,7 +7432,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>104</v>
@@ -7447,7 +7447,7 @@
         <v>107</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>105</v>
@@ -7459,10 +7459,10 @@
         <v>106</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -7470,7 +7470,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -7485,10 +7485,10 @@
         <v>733</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -7499,13 +7499,13 @@
         <v>409</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="D62" s="1">
         <v>1988</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>408</v>
@@ -7531,7 +7531,7 @@
         <v>115</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>115</v>
@@ -7540,10 +7540,10 @@
         <v>112</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -7566,10 +7566,10 @@
         <v>119</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -7580,7 +7580,7 @@
         <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D65" s="1">
         <v>2014</v>
@@ -7592,7 +7592,7 @@
         <v>111</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>108</v>
@@ -7604,13 +7604,13 @@
         <v>721</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>108</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -7618,7 +7618,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>121</v>
@@ -7633,7 +7633,7 @@
         <v>124</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>122</v>
@@ -7645,13 +7645,13 @@
         <v>123</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>120</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -7659,7 +7659,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>121</v>
@@ -7674,10 +7674,10 @@
         <v>734</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -7685,7 +7685,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>126</v>
@@ -7700,7 +7700,7 @@
         <v>127</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>127</v>
@@ -7709,10 +7709,10 @@
         <v>735</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -7720,7 +7720,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>126</v>
@@ -7735,7 +7735,7 @@
         <v>128</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>128</v>
@@ -7744,10 +7744,10 @@
         <v>736</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -7770,7 +7770,7 @@
         <v>660</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>660</v>
@@ -7796,7 +7796,7 @@
         <v>658</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>658</v>
@@ -7822,7 +7822,7 @@
         <v>133</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>133</v>
@@ -7831,10 +7831,10 @@
         <v>131</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -7842,7 +7842,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>130</v>
@@ -7857,10 +7857,10 @@
         <v>737</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -7883,7 +7883,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>136</v>
@@ -7892,10 +7892,10 @@
         <v>134</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -7903,7 +7903,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>130</v>
@@ -7918,10 +7918,10 @@
         <v>738</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -7929,7 +7929,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>138</v>
@@ -7944,7 +7944,7 @@
         <v>139</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>139</v>
@@ -7953,10 +7953,10 @@
         <v>137</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -7979,7 +7979,7 @@
         <v>142</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>142</v>
@@ -7988,13 +7988,13 @@
         <v>140</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -8017,7 +8017,7 @@
         <v>145</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>145</v>
@@ -8026,13 +8026,13 @@
         <v>143</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -8040,7 +8040,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>147</v>
@@ -8055,7 +8055,7 @@
         <v>148</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>148</v>
@@ -8064,10 +8064,10 @@
         <v>149</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -8075,7 +8075,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>147</v>
@@ -8090,16 +8090,16 @@
         <v>146</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>146</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -8122,7 +8122,7 @@
         <v>150</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>150</v>
@@ -8136,7 +8136,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>698</v>
@@ -8151,10 +8151,10 @@
         <v>739</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -8177,10 +8177,10 @@
         <v>155</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -8188,7 +8188,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>158</v>
@@ -8204,13 +8204,13 @@
         <v>740</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -8218,7 +8218,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>164</v>
@@ -8233,10 +8233,10 @@
         <v>162</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -8244,7 +8244,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>164</v>
@@ -8259,7 +8259,7 @@
         <v>165</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>163</v>
@@ -8271,13 +8271,13 @@
         <v>707</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -8285,7 +8285,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>164</v>
@@ -8300,10 +8300,10 @@
         <v>741</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -8311,10 +8311,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="D88" s="1">
         <v>2001</v>
@@ -8326,7 +8326,7 @@
         <v>166</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>166</v>
@@ -8338,13 +8338,13 @@
         <v>708</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>166</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -8352,7 +8352,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>164</v>
@@ -8367,10 +8367,10 @@
         <v>742</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -8393,13 +8393,13 @@
         <v>168</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>168</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -8422,13 +8422,13 @@
         <v>170</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>170</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -8436,7 +8436,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>154</v>
@@ -8451,13 +8451,13 @@
         <v>175</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -8465,7 +8465,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>154</v>
@@ -8480,7 +8480,7 @@
         <v>176</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>176</v>
@@ -8489,13 +8489,13 @@
         <v>177</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -8503,7 +8503,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>154</v>
@@ -8518,13 +8518,13 @@
         <v>172</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>172</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -8532,10 +8532,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D95" s="1">
         <v>2001</v>
@@ -8547,7 +8547,7 @@
         <v>173</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>173</v>
@@ -8556,13 +8556,13 @@
         <v>174</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>172</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -8585,10 +8585,10 @@
         <v>743</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -8611,10 +8611,10 @@
         <v>744</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -8622,7 +8622,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>184</v>
@@ -8637,7 +8637,7 @@
         <v>185</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>182</v>
@@ -8649,10 +8649,10 @@
         <v>183</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -8660,7 +8660,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>184</v>
@@ -8675,10 +8675,10 @@
         <v>745</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -8686,7 +8686,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>661</v>
@@ -8698,19 +8698,19 @@
         <v>26</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>729</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -8733,10 +8733,10 @@
         <v>746</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -8744,7 +8744,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>188</v>
@@ -8756,22 +8756,22 @@
         <v>26</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>189</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="L102" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="N102" s="4" t="s">
         <v>1479</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -8779,7 +8779,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>188</v>
@@ -8794,13 +8794,13 @@
         <v>662</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>662</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -8823,10 +8823,10 @@
         <v>190</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -8834,7 +8834,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>193</v>
@@ -8849,7 +8849,7 @@
         <v>194</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>194</v>
@@ -8858,10 +8858,10 @@
         <v>195</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -8869,7 +8869,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>193</v>
@@ -8884,16 +8884,16 @@
         <v>192</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>192</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -8901,7 +8901,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>196</v>
@@ -8913,16 +8913,16 @@
         <v>26</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>197</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -8930,7 +8930,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>196</v>
@@ -8945,7 +8945,7 @@
         <v>663</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>663</v>
@@ -8954,7 +8954,7 @@
         <v>664</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -8977,7 +8977,7 @@
         <v>201</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>201</v>
@@ -8986,10 +8986,10 @@
         <v>198</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -8997,7 +8997,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>205</v>
@@ -9012,7 +9012,7 @@
         <v>206</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>206</v>
@@ -9021,10 +9021,10 @@
         <v>204</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -9032,7 +9032,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>205</v>
@@ -9047,7 +9047,7 @@
         <v>202</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>202</v>
@@ -9056,7 +9056,7 @@
         <v>202</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -9064,7 +9064,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>205</v>
@@ -9079,10 +9079,10 @@
         <v>747</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -9090,7 +9090,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>207</v>
@@ -9105,7 +9105,7 @@
         <v>212</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>212</v>
@@ -9114,13 +9114,13 @@
         <v>211</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -9128,7 +9128,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>207</v>
@@ -9143,10 +9143,10 @@
         <v>213</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -9154,7 +9154,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>207</v>
@@ -9169,7 +9169,7 @@
         <v>209</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>209</v>
@@ -9178,10 +9178,10 @@
         <v>208</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -9189,7 +9189,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>207</v>
@@ -9204,10 +9204,10 @@
         <v>210</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -9230,10 +9230,10 @@
         <v>748</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -9241,7 +9241,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>217</v>
@@ -9260,10 +9260,10 @@
         <v>749</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -9286,7 +9286,7 @@
         <v>220</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>220</v>
@@ -9295,10 +9295,10 @@
         <v>709</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -9306,7 +9306,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>699</v>
@@ -9321,10 +9321,10 @@
         <v>221</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9335,7 +9335,7 @@
         <v>222</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D121" s="1">
         <v>2004</v>
@@ -9347,16 +9347,16 @@
         <v>223</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -9364,7 +9364,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>224</v>
@@ -9377,19 +9377,19 @@
       </c>
       <c r="F122" s="5"/>
       <c r="H122" s="1" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>225</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="123" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9412,10 +9412,10 @@
         <v>226</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="N123" s="10"/>
     </row>
@@ -9443,7 +9443,7 @@
         <v>750</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>228</v>
@@ -9473,7 +9473,7 @@
         <v>751</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>231</v>
@@ -9499,7 +9499,7 @@
         <v>237</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>233</v>
@@ -9511,13 +9511,13 @@
         <v>234</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -9540,7 +9540,7 @@
         <v>241</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>241</v>
@@ -9549,10 +9549,10 @@
         <v>239</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
@@ -9560,7 +9560,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>238</v>
@@ -9575,10 +9575,10 @@
         <v>752</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
@@ -9601,7 +9601,7 @@
         <v>245</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>245</v>
@@ -9610,10 +9610,10 @@
         <v>243</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -9621,7 +9621,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>238</v>
@@ -9636,10 +9636,10 @@
         <v>246</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9647,7 +9647,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>238</v>
@@ -9662,7 +9662,7 @@
         <v>249</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>249</v>
@@ -9671,10 +9671,10 @@
         <v>248</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
@@ -9682,7 +9682,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>238</v>
@@ -9697,16 +9697,16 @@
         <v>247</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>247</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9714,7 +9714,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>238</v>
@@ -9729,7 +9729,7 @@
         <v>695</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>695</v>
@@ -9738,13 +9738,13 @@
         <v>250</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -9752,7 +9752,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>238</v>
@@ -9767,10 +9767,10 @@
         <v>696</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
@@ -9778,7 +9778,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>252</v>
@@ -9793,16 +9793,16 @@
         <v>255</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>255</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
@@ -9810,7 +9810,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>252</v>
@@ -9825,22 +9825,22 @@
         <v>253</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>253</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>251</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -9848,7 +9848,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>252</v>
@@ -9863,22 +9863,22 @@
         <v>254</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>254</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>251</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9886,7 +9886,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>258</v>
@@ -9901,7 +9901,7 @@
         <v>259</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>259</v>
@@ -9910,13 +9910,13 @@
         <v>260</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
@@ -9939,10 +9939,10 @@
         <v>264</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
@@ -9965,7 +9965,7 @@
         <v>267</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>267</v>
@@ -9974,13 +9974,13 @@
         <v>722</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
@@ -9988,7 +9988,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>266</v>
@@ -10003,7 +10003,7 @@
         <v>275</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>275</v>
@@ -10012,13 +10012,13 @@
         <v>268</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -10026,7 +10026,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>266</v>
@@ -10038,22 +10038,22 @@
         <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="J142" s="5" t="s">
         <v>269</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -10076,10 +10076,10 @@
         <v>272</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -10087,7 +10087,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>266</v>
@@ -10102,7 +10102,7 @@
         <v>274</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>274</v>
@@ -10131,10 +10131,10 @@
         <v>270</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -10157,10 +10157,10 @@
         <v>261</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -10168,7 +10168,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>266</v>
@@ -10183,10 +10183,10 @@
         <v>753</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -10209,10 +10209,10 @@
         <v>279</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -10235,10 +10235,10 @@
         <v>277</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -10261,7 +10261,7 @@
         <v>283</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>283</v>
@@ -10270,10 +10270,10 @@
         <v>281</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -10281,7 +10281,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>276</v>
@@ -10296,10 +10296,10 @@
         <v>284</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -10322,10 +10322,10 @@
         <v>286</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -10348,10 +10348,10 @@
         <v>288</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -10359,10 +10359,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D154" s="1">
         <v>2014</v>
@@ -10374,7 +10374,7 @@
         <v>290</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>290</v>
@@ -10383,10 +10383,10 @@
         <v>710</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -10409,7 +10409,7 @@
         <v>293</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>293</v>
@@ -10418,10 +10418,10 @@
         <v>294</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -10429,7 +10429,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>632</v>
@@ -10444,7 +10444,7 @@
         <v>631</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>631</v>
@@ -10455,7 +10455,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>700</v>
@@ -10470,10 +10470,10 @@
         <v>296</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -10496,10 +10496,10 @@
         <v>300</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -10507,7 +10507,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>304</v>
@@ -10519,16 +10519,16 @@
         <v>5</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -10536,7 +10536,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>304</v>
@@ -10551,7 +10551,7 @@
         <v>302</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>302</v>
@@ -10560,13 +10560,13 @@
         <v>303</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -10589,7 +10589,7 @@
         <v>307</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>307</v>
@@ -10598,13 +10598,13 @@
         <v>305</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -10615,7 +10615,7 @@
         <v>310</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D162" s="1">
         <v>2009</v>
@@ -10627,7 +10627,7 @@
         <v>312</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>308</v>
@@ -10639,7 +10639,7 @@
         <v>311</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>308</v>
@@ -10650,7 +10650,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>309</v>
@@ -10665,10 +10665,10 @@
         <v>313</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -10691,7 +10691,7 @@
         <v>316</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>316</v>
@@ -10700,7 +10700,7 @@
         <v>317</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>314</v>
@@ -10726,7 +10726,7 @@
         <v>321</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>321</v>
@@ -10735,13 +10735,13 @@
         <v>320</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -10764,10 +10764,10 @@
         <v>754</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -10775,7 +10775,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>318</v>
@@ -10790,13 +10790,13 @@
         <v>323</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>323</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -10819,10 +10819,10 @@
         <v>756</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -10849,10 +10849,10 @@
         <v>755</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -10875,7 +10875,7 @@
         <v>359</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>359</v>
@@ -10884,10 +10884,10 @@
         <v>357</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -10910,7 +10910,7 @@
         <v>332</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>332</v>
@@ -10919,10 +10919,10 @@
         <v>330</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -10945,7 +10945,7 @@
         <v>346</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>346</v>
@@ -10954,10 +10954,10 @@
         <v>347</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -10980,7 +10980,7 @@
         <v>334</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>334</v>
@@ -10989,10 +10989,10 @@
         <v>335</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -11015,7 +11015,7 @@
         <v>349</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>349</v>
@@ -11024,10 +11024,10 @@
         <v>350</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -11050,7 +11050,7 @@
         <v>337</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>337</v>
@@ -11059,10 +11059,10 @@
         <v>338</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -11085,7 +11085,7 @@
         <v>352</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>352</v>
@@ -11094,10 +11094,10 @@
         <v>353</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -11120,7 +11120,7 @@
         <v>340</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>340</v>
@@ -11129,10 +11129,10 @@
         <v>341</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -11155,7 +11155,7 @@
         <v>355</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>355</v>
@@ -11164,10 +11164,10 @@
         <v>356</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -11190,7 +11190,7 @@
         <v>343</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>343</v>
@@ -11199,10 +11199,10 @@
         <v>344</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -11210,7 +11210,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>702</v>
@@ -11225,10 +11225,10 @@
         <v>360</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -11236,7 +11236,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>702</v>
@@ -11251,10 +11251,10 @@
         <v>361</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -11262,7 +11262,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>362</v>
@@ -11277,7 +11277,7 @@
         <v>366</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>366</v>
@@ -11286,13 +11286,13 @@
         <v>365</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>365</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -11300,7 +11300,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>362</v>
@@ -11315,7 +11315,7 @@
         <v>364</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>364</v>
@@ -11324,13 +11324,13 @@
         <v>363</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="N183" s="4" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -11338,7 +11338,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>368</v>
@@ -11353,7 +11353,7 @@
         <v>369</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>369</v>
@@ -11367,7 +11367,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>368</v>
@@ -11382,13 +11382,13 @@
         <v>367</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>367</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -11396,7 +11396,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>370</v>
@@ -11411,13 +11411,13 @@
         <v>371</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>371</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -11440,10 +11440,10 @@
         <v>757</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -11466,10 +11466,10 @@
         <v>758</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -11477,7 +11477,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>375</v>
@@ -11492,10 +11492,10 @@
         <v>759</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -11503,7 +11503,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>376</v>
@@ -11518,7 +11518,7 @@
         <v>377</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>377</v>
@@ -11527,10 +11527,10 @@
         <v>103</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -11538,7 +11538,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>376</v>
@@ -11553,10 +11553,10 @@
         <v>380</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -11576,19 +11576,19 @@
         <v>45</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="J192" s="5" t="s">
         <v>378</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -11596,7 +11596,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>381</v>
@@ -11608,19 +11608,19 @@
         <v>26</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="J193" s="5" t="s">
         <v>385</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -11628,7 +11628,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>381</v>
@@ -11640,10 +11640,10 @@
         <v>26</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>382</v>
@@ -11652,10 +11652,10 @@
         <v>383</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -11663,7 +11663,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>381</v>
@@ -11675,19 +11675,19 @@
         <v>26</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="J195" s="5" t="s">
         <v>384</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -11695,7 +11695,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>634</v>
@@ -11710,7 +11710,7 @@
         <v>635</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>633</v>
@@ -11722,10 +11722,10 @@
         <v>636</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -11748,7 +11748,7 @@
         <v>327</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>324</v>
@@ -11760,13 +11760,13 @@
         <v>713</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -11777,7 +11777,7 @@
         <v>388</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D198" s="1">
         <v>1990</v>
@@ -11789,7 +11789,7 @@
         <v>389</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>386</v>
@@ -11801,10 +11801,10 @@
         <v>387</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -11827,7 +11827,7 @@
         <v>393</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>393</v>
@@ -11836,13 +11836,13 @@
         <v>394</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
@@ -11865,7 +11865,7 @@
         <v>398</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>397</v>
@@ -11877,10 +11877,10 @@
         <v>399</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -11888,7 +11888,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>395</v>
@@ -11903,7 +11903,7 @@
         <v>665</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>665</v>
@@ -11929,7 +11929,7 @@
         <v>402</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>401</v>
@@ -11941,10 +11941,10 @@
         <v>403</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -11952,7 +11952,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>395</v>
@@ -11967,7 +11967,7 @@
         <v>666</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>666</v>
@@ -11993,7 +11993,7 @@
         <v>99</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>99</v>
@@ -12005,10 +12005,10 @@
         <v>711</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
@@ -12016,22 +12016,22 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D205" s="1">
         <v>2009</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>391</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>391</v>
@@ -12057,10 +12057,10 @@
         <v>760</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
@@ -12068,23 +12068,23 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="C207" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="D207" s="5">
         <v>2008</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="F207" s="5"/>
       <c r="H207" s="1" t="s">
         <v>157</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -12107,10 +12107,10 @@
         <v>410</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -12118,7 +12118,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>406</v>
@@ -12133,10 +12133,10 @@
         <v>761</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
@@ -12144,7 +12144,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>412</v>
@@ -12159,7 +12159,7 @@
         <v>417</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>415</v>
@@ -12171,7 +12171,7 @@
         <v>416</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="L210" s="1" t="s">
         <v>415</v>
@@ -12182,7 +12182,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>412</v>
@@ -12197,10 +12197,10 @@
         <v>763</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
@@ -12223,7 +12223,7 @@
         <v>413</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>413</v>
@@ -12232,10 +12232,10 @@
         <v>411</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.3">
@@ -12243,7 +12243,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>412</v>
@@ -12258,10 +12258,10 @@
         <v>762</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
@@ -12269,7 +12269,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>412</v>
@@ -12284,10 +12284,10 @@
         <v>414</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
@@ -12295,7 +12295,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>412</v>
@@ -12310,7 +12310,7 @@
         <v>667</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>667</v>
@@ -12321,7 +12321,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>419</v>
@@ -12336,7 +12336,7 @@
         <v>420</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>420</v>
@@ -12345,13 +12345,13 @@
         <v>418</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="N216" s="4" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.3">
@@ -12359,7 +12359,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>419</v>
@@ -12374,10 +12374,10 @@
         <v>421</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
@@ -12405,7 +12405,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>422</v>
@@ -12420,7 +12420,7 @@
         <v>425</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8" t="s">
@@ -12430,14 +12430,14 @@
         <v>424</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="M219" s="8"/>
       <c r="N219" s="9" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="O219" s="17"/>
     </row>
@@ -12446,7 +12446,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>422</v>
@@ -12461,7 +12461,7 @@
         <v>423</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H220" s="8" t="s">
         <v>423</v>
@@ -12470,11 +12470,11 @@
       <c r="J220" s="17"/>
       <c r="K220" s="8"/>
       <c r="L220" s="8" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="M220" s="8"/>
       <c r="N220" s="9" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="O220" s="17"/>
     </row>
@@ -12483,7 +12483,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>422</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="K221" s="1"/>
       <c r="L221" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M221" s="1"/>
       <c r="N221" s="4"/>
@@ -12529,7 +12529,7 @@
         <v>429</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H222" s="5"/>
       <c r="I222" s="5" t="s">
@@ -12540,7 +12540,7 @@
       </c>
       <c r="K222" s="5"/>
       <c r="L222" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="M222" s="5"/>
       <c r="N222" s="10"/>
@@ -12551,7 +12551,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="C223" s="15" t="s">
         <v>430</v>
@@ -12563,10 +12563,10 @@
         <v>26</v>
       </c>
       <c r="F223" s="15" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I223" s="15" t="s">
         <v>432</v>
@@ -12575,13 +12575,13 @@
         <v>433</v>
       </c>
       <c r="K223" s="15" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="L223" s="15" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="N223" s="16" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="224" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -12589,7 +12589,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>430</v>
@@ -12604,13 +12604,13 @@
         <v>431</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H224" s="15" t="s">
         <v>431</v>
       </c>
       <c r="N224" s="16" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="225" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12618,7 +12618,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>430</v>
@@ -12633,10 +12633,10 @@
         <v>716</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="N225" s="10"/>
     </row>
@@ -12645,7 +12645,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>435</v>
@@ -12660,7 +12660,7 @@
         <v>438</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>434</v>
@@ -12672,14 +12672,14 @@
         <v>439</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="M226" s="5"/>
       <c r="N226" s="10" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="O226" s="5"/>
     </row>
@@ -12688,7 +12688,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>435</v>
@@ -12703,7 +12703,7 @@
         <v>436</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I227" s="5" t="s">
         <v>436</v>
@@ -12712,13 +12712,13 @@
         <v>437</v>
       </c>
       <c r="K227" s="5" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="L227" s="5" t="s">
         <v>434</v>
       </c>
       <c r="N227" s="10" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="33" x14ac:dyDescent="0.3">
@@ -12726,7 +12726,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>435</v>
@@ -12741,7 +12741,7 @@
         <v>440</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>440</v>
@@ -12750,13 +12750,13 @@
         <v>441</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="N228" s="10" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.3">
@@ -12779,10 +12779,10 @@
         <v>451</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.3">
@@ -12790,10 +12790,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="D230" s="1">
         <v>1995</v>
@@ -12802,10 +12802,10 @@
         <v>26</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>555</v>
@@ -12816,7 +12816,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>452</v>
@@ -12828,25 +12828,25 @@
         <v>453</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="J231" s="5" t="s">
         <v>454</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="N231" s="4" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.3">
@@ -12854,7 +12854,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>452</v>
@@ -12869,10 +12869,10 @@
         <v>764</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.3">
@@ -12880,7 +12880,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>456</v>
@@ -12895,7 +12895,7 @@
         <v>458</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>458</v>
@@ -12904,10 +12904,10 @@
         <v>459</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="33" x14ac:dyDescent="0.3">
@@ -12915,10 +12915,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D234" s="1">
         <v>2008</v>
@@ -12930,7 +12930,7 @@
         <v>457</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>457</v>
@@ -12939,13 +12939,13 @@
         <v>455</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="N234" s="4" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.3">
@@ -12968,10 +12968,10 @@
         <v>765</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.3">
@@ -12994,10 +12994,10 @@
         <v>766</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.3">
@@ -13020,16 +13020,16 @@
         <v>463</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>463</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="N237" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.3">
@@ -13052,16 +13052,16 @@
         <v>466</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>466</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="N238" s="4" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.3">
@@ -13084,7 +13084,7 @@
         <v>669</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>669</v>
@@ -13093,7 +13093,7 @@
         <v>670</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.3">
@@ -13120,10 +13120,10 @@
         <v>471</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -13131,22 +13131,22 @@
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D241" s="6">
         <v>2005</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>697</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="6" t="s">
@@ -13157,7 +13157,7 @@
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
       <c r="N241" s="7" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
@@ -13177,10 +13177,10 @@
         <v>19</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>298</v>
@@ -13189,13 +13189,13 @@
         <v>767</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="N242" s="4" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -13218,7 +13218,7 @@
         <v>482</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>482</v>
@@ -13227,13 +13227,13 @@
         <v>481</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="N243" s="4" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -13241,7 +13241,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>472</v>
@@ -13256,10 +13256,10 @@
         <v>483</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -13267,7 +13267,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>472</v>
@@ -13279,19 +13279,19 @@
         <v>478</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>479</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="N245" s="4" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -13314,7 +13314,7 @@
         <v>475</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>475</v>
@@ -13323,13 +13323,13 @@
         <v>714</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -13352,7 +13352,7 @@
         <v>682</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>473</v>
@@ -13364,13 +13364,13 @@
         <v>476</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="N247" s="4" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
@@ -13378,7 +13378,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>472</v>
@@ -13393,10 +13393,10 @@
         <v>683</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -13404,7 +13404,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>484</v>
@@ -13419,7 +13419,7 @@
         <v>486</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>486</v>
@@ -13428,13 +13428,13 @@
         <v>485</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="N249" s="4" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -13442,7 +13442,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>484</v>
@@ -13457,10 +13457,10 @@
         <v>487</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -13468,7 +13468,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>484</v>
@@ -13483,7 +13483,7 @@
         <v>489</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>489</v>
@@ -13492,13 +13492,13 @@
         <v>488</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="N251" s="4" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -13506,7 +13506,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>484</v>
@@ -13521,10 +13521,10 @@
         <v>490</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -13547,7 +13547,7 @@
         <v>491</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>491</v>
@@ -13561,7 +13561,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>492</v>
@@ -13576,7 +13576,7 @@
         <v>496</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>496</v>
@@ -13605,7 +13605,7 @@
         <v>497</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>497</v>
@@ -13634,7 +13634,7 @@
         <v>499</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>499</v>
@@ -13663,7 +13663,7 @@
         <v>494</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>494</v>
@@ -13692,7 +13692,7 @@
         <v>501</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>501</v>
@@ -13721,7 +13721,7 @@
         <v>503</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>503</v>
@@ -13750,7 +13750,7 @@
         <v>505</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>505</v>
@@ -13779,7 +13779,7 @@
         <v>507</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>507</v>
@@ -13808,7 +13808,7 @@
         <v>512</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>510</v>
@@ -13820,10 +13820,10 @@
         <v>712</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
@@ -13846,7 +13846,7 @@
         <v>768</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
@@ -13869,7 +13869,7 @@
         <v>517</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>517</v>
@@ -13878,10 +13878,10 @@
         <v>518</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
@@ -13889,7 +13889,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>516</v>
@@ -13904,10 +13904,10 @@
         <v>769</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
@@ -13930,7 +13930,7 @@
         <v>521</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>521</v>
@@ -13939,10 +13939,10 @@
         <v>519</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
@@ -13950,7 +13950,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>516</v>
@@ -13965,10 +13965,10 @@
         <v>770</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
@@ -13976,7 +13976,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>522</v>
@@ -13991,7 +13991,7 @@
         <v>525</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>525</v>
@@ -14000,10 +14000,10 @@
         <v>524</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="N268" s="4" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
@@ -14011,7 +14011,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>522</v>
@@ -14026,16 +14026,16 @@
         <v>523</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>523</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
@@ -14043,7 +14043,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>522</v>
@@ -14058,10 +14058,10 @@
         <v>526</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
@@ -14069,7 +14069,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>527</v>
@@ -14081,19 +14081,19 @@
         <v>26</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>530</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="N271" s="4" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
@@ -14101,7 +14101,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>527</v>
@@ -14116,7 +14116,7 @@
         <v>528</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>528</v>
@@ -14125,10 +14125,10 @@
         <v>529</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="N272" s="4" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
@@ -14151,7 +14151,7 @@
         <v>532</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
@@ -14162,13 +14162,13 @@
         <v>257</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="D274" s="5">
         <v>1982</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="G274" s="5"/>
       <c r="H274" s="1" t="s">
@@ -14192,28 +14192,28 @@
         <v>59</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>540</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="J275" s="5" t="s">
         <v>442</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="N275" s="4" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
@@ -14221,7 +14221,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>533</v>
@@ -14236,7 +14236,7 @@
         <v>546</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>546</v>
@@ -14245,10 +14245,10 @@
         <v>545</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
@@ -14271,7 +14271,7 @@
         <v>539</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>539</v>
@@ -14280,10 +14280,10 @@
         <v>537</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
@@ -14306,7 +14306,7 @@
         <v>536</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>536</v>
@@ -14315,10 +14315,10 @@
         <v>535</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
@@ -14326,7 +14326,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>533</v>
@@ -14341,7 +14341,7 @@
         <v>544</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>544</v>
@@ -14350,13 +14350,13 @@
         <v>543</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="N279" s="4" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
@@ -14379,13 +14379,13 @@
         <v>541</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>541</v>
       </c>
       <c r="N280" s="4" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
@@ -14408,7 +14408,7 @@
         <v>549</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>549</v>
@@ -14417,10 +14417,10 @@
         <v>548</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
@@ -14443,7 +14443,7 @@
         <v>671</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>671</v>
@@ -14452,7 +14452,7 @@
         <v>576</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
@@ -14475,7 +14475,7 @@
         <v>673</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>673</v>
@@ -14484,10 +14484,10 @@
         <v>574</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="N283" s="4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
@@ -14507,22 +14507,22 @@
         <v>59</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="J284" s="5" t="s">
         <v>570</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="N284" s="4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
@@ -14545,7 +14545,7 @@
         <v>672</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>672</v>
@@ -14554,10 +14554,10 @@
         <v>572</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="N285" s="4" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
@@ -14580,7 +14580,7 @@
         <v>552</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>552</v>
@@ -14589,10 +14589,10 @@
         <v>550</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
@@ -14612,22 +14612,22 @@
         <v>59</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="J287" s="5" t="s">
         <v>554</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
@@ -14635,7 +14635,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>556</v>
@@ -14650,10 +14650,10 @@
         <v>771</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
@@ -14661,7 +14661,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>556</v>
@@ -14676,7 +14676,7 @@
         <v>559</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>557</v>
@@ -14688,13 +14688,13 @@
         <v>242</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="N289" s="4" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
@@ -14702,7 +14702,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>560</v>
@@ -14718,7 +14718,7 @@
         <v>561</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -14726,7 +14726,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>562</v>
@@ -14741,13 +14741,13 @@
         <v>565</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>565</v>
       </c>
       <c r="N291" s="4" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
@@ -14755,7 +14755,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>562</v>
@@ -14770,7 +14770,7 @@
         <v>563</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>563</v>
@@ -14779,13 +14779,13 @@
         <v>564</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="N292" s="4" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
@@ -14793,7 +14793,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>566</v>
@@ -14808,7 +14808,7 @@
         <v>568</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>568</v>
@@ -14817,10 +14817,10 @@
         <v>567</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
@@ -14828,7 +14828,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>566</v>
@@ -14843,10 +14843,10 @@
         <v>772</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="295" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14854,7 +14854,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>566</v>
@@ -14866,19 +14866,19 @@
         <v>5</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H295" s="5" t="s">
         <v>569</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="N295" s="10" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="296" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14886,7 +14886,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>566</v>
@@ -14898,19 +14898,19 @@
         <v>5</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>578</v>
       </c>
       <c r="L296" s="5" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="N296" s="10" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
@@ -14933,7 +14933,7 @@
         <v>581</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>581</v>
@@ -14942,10 +14942,10 @@
         <v>579</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
@@ -14953,7 +14953,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>566</v>
@@ -14968,10 +14968,10 @@
         <v>773</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
@@ -14991,22 +14991,22 @@
         <v>5</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="J299" s="5" t="s">
         <v>582</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
@@ -15014,7 +15014,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>566</v>
@@ -15029,10 +15029,10 @@
         <v>774</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
@@ -15055,7 +15055,7 @@
         <v>676</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>676</v>
@@ -15081,7 +15081,7 @@
         <v>678</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>678</v>
@@ -15092,7 +15092,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>584</v>
@@ -15107,7 +15107,7 @@
         <v>587</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>585</v>
@@ -15119,13 +15119,13 @@
         <v>586</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="N303" s="4" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
@@ -15148,7 +15148,7 @@
         <v>588</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>588</v>
@@ -15160,13 +15160,13 @@
         <v>591</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="N304" s="4" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
@@ -15189,7 +15189,7 @@
         <v>596</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>592</v>
@@ -15201,10 +15201,10 @@
         <v>593</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="N305" s="4" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="306" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -15227,7 +15227,7 @@
         <v>597</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>597</v>
@@ -15236,13 +15236,13 @@
         <v>600</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="L306" s="1" t="s">
         <v>597</v>
       </c>
       <c r="N306" s="4" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
@@ -15265,13 +15265,13 @@
         <v>603</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>603</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
@@ -15294,7 +15294,7 @@
         <v>604</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
@@ -15305,7 +15305,7 @@
         <v>610</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D309" s="1">
         <v>2016</v>
@@ -15317,7 +15317,7 @@
         <v>609</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>609</v>
@@ -15346,7 +15346,7 @@
         <v>606</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>606</v>
@@ -15355,13 +15355,13 @@
         <v>608</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="L310" s="1" t="s">
         <v>606</v>
       </c>
       <c r="N310" s="4" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
@@ -15384,10 +15384,10 @@
         <v>613</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
@@ -15395,7 +15395,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>611</v>
@@ -15410,10 +15410,10 @@
         <v>775</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
@@ -15436,7 +15436,7 @@
         <v>680</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>680</v>
@@ -15445,7 +15445,7 @@
         <v>704</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
@@ -15468,10 +15468,10 @@
         <v>615</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\anomaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D21C6-7B00-4CB6-A3A5-AD1799B6B118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B844D698-2FE7-42D7-AB6C-2008E9E09A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15795" yWindow="7425" windowWidth="29625" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13455" yWindow="0" windowWidth="29145" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="1492">
   <si>
     <t>author</t>
   </si>
@@ -2041,9 +2041,6 @@
     <t>Miller and Scholes</t>
   </si>
   <si>
-    <t>prc</t>
-  </si>
-  <si>
     <t>Pps</t>
   </si>
   <si>
@@ -5064,6 +5061,14 @@
   </si>
   <si>
     <t>cz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We change JKP's alias 'prc' to 'price' as 'prc' exists in crspm.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5490,9 +5495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N240" sqref="N240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5517,7 +5522,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -5529,28 +5534,28 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>1488</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>1489</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1490</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>3</v>
@@ -5576,10 +5581,10 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5587,40 +5592,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1386</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1387</v>
       </c>
       <c r="D3" s="1">
         <v>1998</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5628,7 +5633,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -5643,22 +5648,22 @@
         <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>1067</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -5681,7 +5686,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -5690,10 +5695,10 @@
         <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5701,7 +5706,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -5716,7 +5721,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -5725,16 +5730,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5742,7 +5747,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -5757,7 +5762,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -5766,16 +5771,16 @@
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5783,7 +5788,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -5798,7 +5803,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
@@ -5807,16 +5812,16 @@
         <v>12</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5836,13 +5841,13 @@
         <v>19</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5862,13 +5867,13 @@
         <v>19</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5888,13 +5893,13 @@
         <v>19</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -5914,13 +5919,13 @@
         <v>19</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -5940,13 +5945,13 @@
         <v>19</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -5966,13 +5971,13 @@
         <v>26</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -5980,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -5992,16 +5997,16 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>1110</v>
-      </c>
       <c r="N15" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -6009,7 +6014,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -6021,25 +6026,25 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>1109</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>1107</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -6050,7 +6055,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D17" s="1">
         <v>2002</v>
@@ -6062,7 +6067,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>30</v>
@@ -6074,10 +6079,10 @@
         <v>33</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -6088,7 +6093,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D18" s="1">
         <v>1986</v>
@@ -6100,13 +6105,13 @@
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -6129,7 +6134,7 @@
         <v>43</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>43</v>
@@ -6138,10 +6143,10 @@
         <v>41</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -6164,7 +6169,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>36</v>
@@ -6176,7 +6181,7 @@
         <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>36</v>
@@ -6199,13 +6204,13 @@
         <v>45</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -6213,10 +6218,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D22" s="1">
         <v>2006</v>
@@ -6225,22 +6230,22 @@
         <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -6248,7 +6253,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>47</v>
@@ -6263,7 +6268,7 @@
         <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>53</v>
@@ -6272,13 +6277,13 @@
         <v>54</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -6286,7 +6291,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
@@ -6298,25 +6303,25 @@
         <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J24" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>1118</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -6339,7 +6344,7 @@
         <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>49</v>
@@ -6351,13 +6356,13 @@
         <v>52</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -6377,13 +6382,13 @@
         <v>26</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -6406,19 +6411,19 @@
         <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -6441,7 +6446,7 @@
         <v>617</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>617</v>
@@ -6452,7 +6457,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>619</v>
@@ -6467,7 +6472,7 @@
         <v>620</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>620</v>
@@ -6493,7 +6498,7 @@
         <v>621</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>621</v>
@@ -6519,7 +6524,7 @@
         <v>623</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>623</v>
@@ -6530,22 +6535,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D32" s="1">
         <v>2013</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>558</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -6553,7 +6558,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>641</v>
@@ -6568,7 +6573,7 @@
         <v>652</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>652</v>
@@ -6594,7 +6599,7 @@
         <v>642</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>642</v>
@@ -6620,7 +6625,7 @@
         <v>645</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>645</v>
@@ -6646,7 +6651,7 @@
         <v>647</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>647</v>
@@ -6672,7 +6677,7 @@
         <v>649</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>649</v>
@@ -6698,7 +6703,7 @@
         <v>651</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>651</v>
@@ -6709,7 +6714,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>61</v>
@@ -6721,22 +6726,22 @@
         <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>691</v>
-      </c>
       <c r="K39" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -6744,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>61</v>
@@ -6756,25 +6761,25 @@
         <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>1214</v>
-      </c>
       <c r="L40" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -6797,7 +6802,7 @@
         <v>62</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>58</v>
@@ -6809,7 +6814,7 @@
         <v>63</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>58</v>
@@ -6835,7 +6840,7 @@
         <v>655</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>655</v>
@@ -6861,7 +6866,7 @@
         <v>67</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>65</v>
@@ -6873,13 +6878,13 @@
         <v>68</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -6899,22 +6904,22 @@
         <v>71</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>685</v>
-      </c>
       <c r="K44" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -6922,7 +6927,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>70</v>
@@ -6937,19 +6942,19 @@
         <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>74</v>
       </c>
       <c r="J45" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>1121</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -6957,7 +6962,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>70</v>
@@ -6969,22 +6974,22 @@
         <v>71</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -7007,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>72</v>
@@ -7016,13 +7021,13 @@
         <v>73</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -7042,25 +7047,25 @@
         <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -7068,7 +7073,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>76</v>
@@ -7083,7 +7088,7 @@
         <v>80</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>80</v>
@@ -7092,13 +7097,13 @@
         <v>79</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -7106,7 +7111,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>76</v>
@@ -7121,10 +7126,10 @@
         <v>81</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -7144,25 +7149,25 @@
         <v>19</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>82</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -7185,7 +7190,7 @@
         <v>86</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>86</v>
@@ -7194,13 +7199,13 @@
         <v>84</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -7208,7 +7213,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>76</v>
@@ -7223,10 +7228,10 @@
         <v>87</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -7249,7 +7254,7 @@
         <v>625</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>625</v>
@@ -7275,7 +7280,7 @@
         <v>628</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>628</v>
@@ -7301,7 +7306,7 @@
         <v>93</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>90</v>
@@ -7313,13 +7318,13 @@
         <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>88</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -7327,7 +7332,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>97</v>
@@ -7342,7 +7347,7 @@
         <v>98</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>95</v>
@@ -7354,10 +7359,10 @@
         <v>96</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -7365,7 +7370,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>97</v>
@@ -7377,13 +7382,13 @@
         <v>94</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -7391,7 +7396,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>445</v>
@@ -7406,7 +7411,7 @@
         <v>447</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>444</v>
@@ -7418,13 +7423,13 @@
         <v>448</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -7432,7 +7437,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>104</v>
@@ -7447,7 +7452,7 @@
         <v>107</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>105</v>
@@ -7459,10 +7464,10 @@
         <v>106</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -7470,7 +7475,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -7482,13 +7487,13 @@
         <v>19</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -7499,13 +7504,13 @@
         <v>409</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D62" s="1">
         <v>1988</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>408</v>
@@ -7531,7 +7536,7 @@
         <v>115</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>115</v>
@@ -7540,10 +7545,10 @@
         <v>112</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -7566,10 +7571,10 @@
         <v>119</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -7580,7 +7585,7 @@
         <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D65" s="1">
         <v>2014</v>
@@ -7592,7 +7597,7 @@
         <v>111</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>108</v>
@@ -7601,16 +7606,16 @@
         <v>111</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>108</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -7618,7 +7623,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>121</v>
@@ -7633,7 +7638,7 @@
         <v>124</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>122</v>
@@ -7645,13 +7650,13 @@
         <v>123</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>120</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -7659,7 +7664,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>121</v>
@@ -7671,13 +7676,13 @@
         <v>19</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -7685,7 +7690,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>126</v>
@@ -7700,19 +7705,19 @@
         <v>127</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -7720,7 +7725,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>126</v>
@@ -7735,19 +7740,19 @@
         <v>128</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>128</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -7770,7 +7775,7 @@
         <v>660</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>660</v>
@@ -7796,7 +7801,7 @@
         <v>658</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>658</v>
@@ -7822,7 +7827,7 @@
         <v>133</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>133</v>
@@ -7831,10 +7836,10 @@
         <v>131</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -7842,7 +7847,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>130</v>
@@ -7854,13 +7859,13 @@
         <v>26</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -7883,7 +7888,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>136</v>
@@ -7892,10 +7897,10 @@
         <v>134</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -7903,7 +7908,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>130</v>
@@ -7915,13 +7920,13 @@
         <v>26</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -7929,7 +7934,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>138</v>
@@ -7944,7 +7949,7 @@
         <v>139</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>139</v>
@@ -7953,10 +7958,10 @@
         <v>137</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -7979,7 +7984,7 @@
         <v>142</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>142</v>
@@ -7988,13 +7993,13 @@
         <v>140</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>1224</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -8017,7 +8022,7 @@
         <v>145</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>145</v>
@@ -8026,13 +8031,13 @@
         <v>143</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="N78" s="4" t="s">
         <v>1224</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -8040,7 +8045,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>147</v>
@@ -8055,7 +8060,7 @@
         <v>148</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>148</v>
@@ -8064,10 +8069,10 @@
         <v>149</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -8075,7 +8080,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>147</v>
@@ -8090,16 +8095,16 @@
         <v>146</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>146</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -8122,7 +8127,7 @@
         <v>150</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>150</v>
@@ -8136,10 +8141,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D82" s="1">
         <v>2008</v>
@@ -8148,13 +8153,13 @@
         <v>26</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -8165,7 +8170,7 @@
         <v>156</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D83" s="1">
         <v>2008</v>
@@ -8177,10 +8182,10 @@
         <v>155</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -8188,7 +8193,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>158</v>
@@ -8201,16 +8206,16 @@
       </c>
       <c r="F84" s="5"/>
       <c r="J84" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -8218,7 +8223,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>164</v>
@@ -8233,10 +8238,10 @@
         <v>162</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -8244,7 +8249,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>164</v>
@@ -8259,7 +8264,7 @@
         <v>165</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>163</v>
@@ -8268,16 +8273,16 @@
         <v>165</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -8285,7 +8290,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>164</v>
@@ -8297,13 +8302,13 @@
         <v>26</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -8311,10 +8316,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D88" s="1">
         <v>2001</v>
@@ -8326,7 +8331,7 @@
         <v>166</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>166</v>
@@ -8335,16 +8340,16 @@
         <v>166</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>166</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -8352,7 +8357,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>164</v>
@@ -8364,13 +8369,13 @@
         <v>26</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -8393,13 +8398,13 @@
         <v>168</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>168</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -8422,13 +8427,13 @@
         <v>170</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>170</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -8436,7 +8441,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>154</v>
@@ -8451,13 +8456,13 @@
         <v>175</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -8465,7 +8470,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>154</v>
@@ -8480,7 +8485,7 @@
         <v>176</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>176</v>
@@ -8489,13 +8494,13 @@
         <v>177</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -8503,7 +8508,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>154</v>
@@ -8518,13 +8523,13 @@
         <v>172</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>172</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -8532,10 +8537,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D95" s="1">
         <v>2001</v>
@@ -8547,7 +8552,7 @@
         <v>173</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>173</v>
@@ -8556,13 +8561,13 @@
         <v>174</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>172</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -8582,13 +8587,13 @@
         <v>26</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -8608,13 +8613,13 @@
         <v>19</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -8622,7 +8627,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>184</v>
@@ -8637,7 +8642,7 @@
         <v>185</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>182</v>
@@ -8649,10 +8654,10 @@
         <v>183</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -8660,7 +8665,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>184</v>
@@ -8672,13 +8677,13 @@
         <v>26</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -8686,7 +8691,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>661</v>
@@ -8698,19 +8703,19 @@
         <v>26</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -8730,13 +8735,13 @@
         <v>19</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -8744,7 +8749,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>188</v>
@@ -8756,22 +8761,22 @@
         <v>26</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>189</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -8779,7 +8784,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>188</v>
@@ -8794,13 +8799,13 @@
         <v>662</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>662</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -8823,10 +8828,10 @@
         <v>190</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -8834,7 +8839,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>193</v>
@@ -8849,7 +8854,7 @@
         <v>194</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>194</v>
@@ -8858,10 +8863,10 @@
         <v>195</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -8869,7 +8874,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>193</v>
@@ -8884,16 +8889,16 @@
         <v>192</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>192</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -8901,7 +8906,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>196</v>
@@ -8913,16 +8918,16 @@
         <v>26</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>197</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -8930,7 +8935,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>196</v>
@@ -8945,7 +8950,7 @@
         <v>663</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>663</v>
@@ -8954,7 +8959,7 @@
         <v>664</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -8977,7 +8982,7 @@
         <v>201</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>201</v>
@@ -8986,10 +8991,10 @@
         <v>198</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -8997,7 +9002,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>205</v>
@@ -9012,7 +9017,7 @@
         <v>206</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>206</v>
@@ -9021,10 +9026,10 @@
         <v>204</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -9032,7 +9037,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>205</v>
@@ -9047,7 +9052,7 @@
         <v>202</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>202</v>
@@ -9056,7 +9061,7 @@
         <v>202</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -9064,7 +9069,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>205</v>
@@ -9076,13 +9081,13 @@
         <v>5</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -9090,7 +9095,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>207</v>
@@ -9105,7 +9110,7 @@
         <v>212</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>212</v>
@@ -9114,13 +9119,13 @@
         <v>211</v>
       </c>
       <c r="K113" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="N113" s="4" t="s">
         <v>1227</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -9128,7 +9133,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>207</v>
@@ -9143,10 +9148,10 @@
         <v>213</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -9154,7 +9159,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>207</v>
@@ -9169,7 +9174,7 @@
         <v>209</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>209</v>
@@ -9178,10 +9183,10 @@
         <v>208</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -9189,7 +9194,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>207</v>
@@ -9204,10 +9209,10 @@
         <v>210</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -9227,13 +9232,13 @@
         <v>26</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -9241,7 +9246,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>217</v>
@@ -9257,13 +9262,13 @@
         <v>216</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -9286,19 +9291,19 @@
         <v>220</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>220</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -9306,10 +9311,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D120" s="1">
         <v>2002</v>
@@ -9321,10 +9326,10 @@
         <v>221</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9335,7 +9340,7 @@
         <v>222</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D121" s="1">
         <v>2004</v>
@@ -9347,16 +9352,16 @@
         <v>223</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -9364,7 +9369,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>224</v>
@@ -9377,19 +9382,19 @@
       </c>
       <c r="F122" s="5"/>
       <c r="H122" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>225</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="123" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9412,10 +9417,10 @@
         <v>226</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N123" s="10"/>
     </row>
@@ -9440,10 +9445,10 @@
         <v>228</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>228</v>
@@ -9470,10 +9475,10 @@
         <v>231</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>231</v>
@@ -9499,7 +9504,7 @@
         <v>237</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>233</v>
@@ -9511,13 +9516,13 @@
         <v>234</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -9540,7 +9545,7 @@
         <v>241</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>241</v>
@@ -9549,10 +9554,10 @@
         <v>239</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
@@ -9560,7 +9565,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>238</v>
@@ -9572,13 +9577,13 @@
         <v>26</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
@@ -9601,7 +9606,7 @@
         <v>245</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>245</v>
@@ -9610,10 +9615,10 @@
         <v>243</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -9621,7 +9626,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>238</v>
@@ -9636,10 +9641,10 @@
         <v>246</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9647,7 +9652,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>238</v>
@@ -9662,7 +9667,7 @@
         <v>249</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>249</v>
@@ -9671,10 +9676,10 @@
         <v>248</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
@@ -9682,7 +9687,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>238</v>
@@ -9697,16 +9702,16 @@
         <v>247</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>247</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9714,7 +9719,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>238</v>
@@ -9726,25 +9731,25 @@
         <v>19</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J133" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -9752,7 +9757,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>238</v>
@@ -9764,13 +9769,13 @@
         <v>19</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
@@ -9778,7 +9783,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>252</v>
@@ -9793,16 +9798,16 @@
         <v>255</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>255</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
@@ -9810,7 +9815,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>252</v>
@@ -9825,22 +9830,22 @@
         <v>253</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>253</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>251</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
@@ -9848,7 +9853,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>252</v>
@@ -9863,22 +9868,22 @@
         <v>254</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>254</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>251</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9886,7 +9891,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>258</v>
@@ -9901,7 +9906,7 @@
         <v>259</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>259</v>
@@ -9910,13 +9915,13 @@
         <v>260</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
@@ -9939,10 +9944,10 @@
         <v>264</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
@@ -9965,22 +9970,22 @@
         <v>267</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>267</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
@@ -9988,7 +9993,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>266</v>
@@ -10003,7 +10008,7 @@
         <v>275</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>275</v>
@@ -10012,13 +10017,13 @@
         <v>268</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -10026,7 +10031,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>266</v>
@@ -10038,22 +10043,22 @@
         <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="J142" s="5" t="s">
         <v>269</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -10076,10 +10081,10 @@
         <v>272</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -10087,7 +10092,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>266</v>
@@ -10102,7 +10107,7 @@
         <v>274</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>274</v>
@@ -10131,10 +10136,10 @@
         <v>270</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -10157,10 +10162,10 @@
         <v>261</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -10168,7 +10173,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>266</v>
@@ -10180,13 +10185,13 @@
         <v>59</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -10209,10 +10214,10 @@
         <v>279</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -10235,10 +10240,10 @@
         <v>277</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -10261,7 +10266,7 @@
         <v>283</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>283</v>
@@ -10270,10 +10275,10 @@
         <v>281</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -10281,7 +10286,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>276</v>
@@ -10296,10 +10301,10 @@
         <v>284</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -10322,10 +10327,10 @@
         <v>286</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -10348,10 +10353,10 @@
         <v>288</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -10359,10 +10364,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D154" s="1">
         <v>2014</v>
@@ -10374,19 +10379,19 @@
         <v>290</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>290</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -10409,7 +10414,7 @@
         <v>293</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>293</v>
@@ -10418,10 +10423,10 @@
         <v>294</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -10429,7 +10434,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>632</v>
@@ -10444,7 +10449,7 @@
         <v>631</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>631</v>
@@ -10455,10 +10460,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D157" s="1">
         <v>2003</v>
@@ -10470,10 +10475,10 @@
         <v>296</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -10496,10 +10501,10 @@
         <v>300</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
@@ -10507,7 +10512,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>304</v>
@@ -10519,16 +10524,16 @@
         <v>5</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
@@ -10536,7 +10541,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>304</v>
@@ -10551,7 +10556,7 @@
         <v>302</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>302</v>
@@ -10560,13 +10565,13 @@
         <v>303</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -10589,7 +10594,7 @@
         <v>307</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>307</v>
@@ -10598,13 +10603,13 @@
         <v>305</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -10615,7 +10620,7 @@
         <v>310</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D162" s="1">
         <v>2009</v>
@@ -10627,7 +10632,7 @@
         <v>312</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>308</v>
@@ -10639,7 +10644,7 @@
         <v>311</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>308</v>
@@ -10650,7 +10655,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>309</v>
@@ -10665,10 +10670,10 @@
         <v>313</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -10691,7 +10696,7 @@
         <v>316</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>316</v>
@@ -10700,7 +10705,7 @@
         <v>317</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L164" s="1" t="s">
         <v>314</v>
@@ -10726,7 +10731,7 @@
         <v>321</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>321</v>
@@ -10735,13 +10740,13 @@
         <v>320</v>
       </c>
       <c r="K165" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="N165" s="4" t="s">
         <v>1239</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="N165" s="4" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -10761,13 +10766,13 @@
         <v>19</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -10775,7 +10780,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>318</v>
@@ -10790,13 +10795,13 @@
         <v>323</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>323</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -10807,7 +10812,7 @@
         <v>328</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D168" s="1">
         <v>1984</v>
@@ -10816,13 +10821,13 @@
         <v>94</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -10846,13 +10851,13 @@
         <v>159</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -10875,7 +10880,7 @@
         <v>359</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>359</v>
@@ -10884,10 +10889,10 @@
         <v>357</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -10910,7 +10915,7 @@
         <v>332</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>332</v>
@@ -10919,10 +10924,10 @@
         <v>330</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -10945,7 +10950,7 @@
         <v>346</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>346</v>
@@ -10954,10 +10959,10 @@
         <v>347</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -10980,7 +10985,7 @@
         <v>334</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>334</v>
@@ -10989,10 +10994,10 @@
         <v>335</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -11015,7 +11020,7 @@
         <v>349</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>349</v>
@@ -11024,10 +11029,10 @@
         <v>350</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -11050,7 +11055,7 @@
         <v>337</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>337</v>
@@ -11059,10 +11064,10 @@
         <v>338</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -11085,7 +11090,7 @@
         <v>352</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>352</v>
@@ -11094,10 +11099,10 @@
         <v>353</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -11120,7 +11125,7 @@
         <v>340</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>340</v>
@@ -11129,10 +11134,10 @@
         <v>341</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -11155,7 +11160,7 @@
         <v>355</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>355</v>
@@ -11164,10 +11169,10 @@
         <v>356</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -11190,7 +11195,7 @@
         <v>343</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>343</v>
@@ -11199,10 +11204,10 @@
         <v>344</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -11210,10 +11215,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D180" s="1">
         <v>2013</v>
@@ -11225,10 +11230,10 @@
         <v>360</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -11236,10 +11241,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D181" s="1">
         <v>2013</v>
@@ -11251,10 +11256,10 @@
         <v>361</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -11262,7 +11267,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>362</v>
@@ -11277,7 +11282,7 @@
         <v>366</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>366</v>
@@ -11286,13 +11291,13 @@
         <v>365</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L182" s="1" t="s">
         <v>365</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -11300,7 +11305,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>362</v>
@@ -11315,7 +11320,7 @@
         <v>364</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>364</v>
@@ -11324,13 +11329,13 @@
         <v>363</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N183" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -11338,7 +11343,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>368</v>
@@ -11353,7 +11358,7 @@
         <v>369</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>369</v>
@@ -11367,7 +11372,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>368</v>
@@ -11382,13 +11387,13 @@
         <v>367</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>367</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -11396,7 +11401,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>370</v>
@@ -11411,13 +11416,13 @@
         <v>371</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>371</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -11437,13 +11442,13 @@
         <v>45</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -11463,13 +11468,13 @@
         <v>45</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -11477,7 +11482,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>375</v>
@@ -11489,13 +11494,13 @@
         <v>19</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -11503,7 +11508,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>376</v>
@@ -11518,7 +11523,7 @@
         <v>377</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>377</v>
@@ -11527,10 +11532,10 @@
         <v>103</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -11538,7 +11543,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>376</v>
@@ -11553,10 +11558,10 @@
         <v>380</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -11576,19 +11581,19 @@
         <v>45</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J192" s="5" t="s">
         <v>378</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -11596,7 +11601,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>381</v>
@@ -11608,19 +11613,19 @@
         <v>26</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J193" s="5" t="s">
         <v>385</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -11628,7 +11633,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>381</v>
@@ -11640,10 +11645,10 @@
         <v>26</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>382</v>
@@ -11652,10 +11657,10 @@
         <v>383</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -11663,7 +11668,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>381</v>
@@ -11675,19 +11680,19 @@
         <v>26</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J195" s="5" t="s">
         <v>384</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -11695,7 +11700,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>634</v>
@@ -11710,7 +11715,7 @@
         <v>635</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>633</v>
@@ -11722,10 +11727,10 @@
         <v>636</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -11748,7 +11753,7 @@
         <v>327</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>324</v>
@@ -11757,16 +11762,16 @@
         <v>327</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -11777,7 +11782,7 @@
         <v>388</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D198" s="1">
         <v>1990</v>
@@ -11789,7 +11794,7 @@
         <v>389</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>386</v>
@@ -11801,10 +11806,10 @@
         <v>387</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -11827,7 +11832,7 @@
         <v>393</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>393</v>
@@ -11836,13 +11841,13 @@
         <v>394</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
@@ -11865,7 +11870,7 @@
         <v>398</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>397</v>
@@ -11877,10 +11882,10 @@
         <v>399</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -11888,7 +11893,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>395</v>
@@ -11903,7 +11908,7 @@
         <v>665</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>665</v>
@@ -11929,7 +11934,7 @@
         <v>402</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>401</v>
@@ -11941,10 +11946,10 @@
         <v>403</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -11952,7 +11957,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>395</v>
@@ -11967,7 +11972,7 @@
         <v>666</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>666</v>
@@ -11993,7 +11998,7 @@
         <v>99</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>99</v>
@@ -12002,13 +12007,13 @@
         <v>99</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
@@ -12016,22 +12021,22 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D205" s="1">
         <v>2009</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>391</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>391</v>
@@ -12054,13 +12059,13 @@
         <v>45</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
@@ -12068,23 +12073,23 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C207" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D207" s="5">
         <v>2008</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="F207" s="5"/>
       <c r="H207" s="1" t="s">
         <v>157</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -12107,10 +12112,10 @@
         <v>410</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -12118,7 +12123,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>406</v>
@@ -12130,13 +12135,13 @@
         <v>26</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
@@ -12144,7 +12149,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>412</v>
@@ -12159,7 +12164,7 @@
         <v>417</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>415</v>
@@ -12171,7 +12176,7 @@
         <v>416</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L210" s="1" t="s">
         <v>415</v>
@@ -12182,7 +12187,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>412</v>
@@ -12194,13 +12199,13 @@
         <v>26</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
@@ -12223,7 +12228,7 @@
         <v>413</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>413</v>
@@ -12232,10 +12237,10 @@
         <v>411</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.3">
@@ -12243,7 +12248,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>412</v>
@@ -12255,13 +12260,13 @@
         <v>26</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
@@ -12269,7 +12274,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>412</v>
@@ -12284,10 +12289,10 @@
         <v>414</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
@@ -12295,7 +12300,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>412</v>
@@ -12310,7 +12315,7 @@
         <v>667</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I215" s="1" t="s">
         <v>667</v>
@@ -12321,7 +12326,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>419</v>
@@ -12336,7 +12341,7 @@
         <v>420</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>420</v>
@@ -12345,13 +12350,13 @@
         <v>418</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="N216" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.3">
@@ -12359,7 +12364,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>419</v>
@@ -12374,10 +12379,10 @@
         <v>421</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
@@ -12405,7 +12410,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>422</v>
@@ -12420,7 +12425,7 @@
         <v>425</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8" t="s">
@@ -12430,14 +12435,14 @@
         <v>424</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="L219" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M219" s="8"/>
       <c r="N219" s="9" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="O219" s="17"/>
     </row>
@@ -12446,7 +12451,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>422</v>
@@ -12461,7 +12466,7 @@
         <v>423</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H220" s="8" t="s">
         <v>423</v>
@@ -12470,11 +12475,11 @@
       <c r="J220" s="17"/>
       <c r="K220" s="8"/>
       <c r="L220" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M220" s="8"/>
       <c r="N220" s="9" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="O220" s="17"/>
     </row>
@@ -12483,7 +12488,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>422</v>
@@ -12503,7 +12508,7 @@
       </c>
       <c r="K221" s="1"/>
       <c r="L221" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M221" s="1"/>
       <c r="N221" s="4"/>
@@ -12529,18 +12534,18 @@
         <v>429</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H222" s="5"/>
       <c r="I222" s="5" t="s">
         <v>429</v>
       </c>
       <c r="J222" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K222" s="5"/>
       <c r="L222" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="M222" s="5"/>
       <c r="N222" s="10"/>
@@ -12551,7 +12556,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C223" s="15" t="s">
         <v>430</v>
@@ -12563,10 +12568,10 @@
         <v>26</v>
       </c>
       <c r="F223" s="15" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I223" s="15" t="s">
         <v>432</v>
@@ -12575,13 +12580,13 @@
         <v>433</v>
       </c>
       <c r="K223" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L223" s="15" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="N223" s="16" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="224" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -12589,7 +12594,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>430</v>
@@ -12604,13 +12609,13 @@
         <v>431</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H224" s="15" t="s">
         <v>431</v>
       </c>
       <c r="N224" s="16" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="225" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12618,7 +12623,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>430</v>
@@ -12630,13 +12635,13 @@
         <v>26</v>
       </c>
       <c r="J225" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K225" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L225" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N225" s="10"/>
     </row>
@@ -12645,7 +12650,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>435</v>
@@ -12660,7 +12665,7 @@
         <v>438</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H226" s="5" t="s">
         <v>434</v>
@@ -12672,14 +12677,14 @@
         <v>439</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M226" s="5"/>
       <c r="N226" s="10" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="O226" s="5"/>
     </row>
@@ -12688,7 +12693,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>435</v>
@@ -12703,7 +12708,7 @@
         <v>436</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I227" s="5" t="s">
         <v>436</v>
@@ -12712,13 +12717,13 @@
         <v>437</v>
       </c>
       <c r="K227" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L227" s="5" t="s">
         <v>434</v>
       </c>
       <c r="N227" s="10" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="33" x14ac:dyDescent="0.3">
@@ -12726,7 +12731,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>435</v>
@@ -12741,7 +12746,7 @@
         <v>440</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>440</v>
@@ -12750,13 +12755,13 @@
         <v>441</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="N228" s="10" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.3">
@@ -12779,10 +12784,10 @@
         <v>451</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.3">
@@ -12790,10 +12795,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D230" s="1">
         <v>1995</v>
@@ -12802,10 +12807,10 @@
         <v>26</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G230" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>555</v>
@@ -12816,7 +12821,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>452</v>
@@ -12828,25 +12833,25 @@
         <v>453</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J231" s="5" t="s">
         <v>454</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N231" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.3">
@@ -12854,7 +12859,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>452</v>
@@ -12866,13 +12871,13 @@
         <v>453</v>
       </c>
       <c r="J232" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.3">
@@ -12880,7 +12885,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>456</v>
@@ -12895,7 +12900,7 @@
         <v>458</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>458</v>
@@ -12904,10 +12909,10 @@
         <v>459</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="33" x14ac:dyDescent="0.3">
@@ -12915,10 +12920,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>1334</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>1335</v>
       </c>
       <c r="D234" s="1">
         <v>2008</v>
@@ -12930,7 +12935,7 @@
         <v>457</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>457</v>
@@ -12939,13 +12944,13 @@
         <v>455</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="N234" s="4" t="s">
         <v>1248</v>
-      </c>
-      <c r="L234" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="N234" s="4" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.3">
@@ -12965,13 +12970,13 @@
         <v>26</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.3">
@@ -12991,13 +12996,13 @@
         <v>26</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.3">
@@ -13020,16 +13025,16 @@
         <v>463</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>463</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N237" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.3">
@@ -13052,16 +13057,16 @@
         <v>466</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>466</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N238" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.3">
@@ -13081,19 +13086,22 @@
         <v>109</v>
       </c>
       <c r="F239" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J239" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="G239" s="5" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="J239" s="5" t="s">
-        <v>670</v>
-      </c>
       <c r="K239" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
+      </c>
+      <c r="N239" s="4" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.3">
@@ -13120,10 +13128,10 @@
         <v>471</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -13131,33 +13139,33 @@
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C241" s="6" t="s">
         <v>1352</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>1353</v>
       </c>
       <c r="D241" s="6">
         <v>2005</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H241" s="6"/>
       <c r="I241" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="6"/>
       <c r="N241" s="7" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="242" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
@@ -13177,25 +13185,25 @@
         <v>19</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>298</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N242" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -13218,7 +13226,7 @@
         <v>482</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>482</v>
@@ -13227,13 +13235,13 @@
         <v>481</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N243" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -13241,7 +13249,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>472</v>
@@ -13256,10 +13264,10 @@
         <v>483</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -13267,7 +13275,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>472</v>
@@ -13279,19 +13287,19 @@
         <v>478</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>479</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N245" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -13314,22 +13322,22 @@
         <v>475</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>475</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -13349,28 +13357,28 @@
         <v>19</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>473</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J247" s="5" t="s">
         <v>476</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="N247" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
@@ -13378,7 +13386,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>472</v>
@@ -13390,13 +13398,13 @@
         <v>19</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -13404,7 +13412,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>484</v>
@@ -13419,7 +13427,7 @@
         <v>486</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>486</v>
@@ -13428,13 +13436,13 @@
         <v>485</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="N249" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -13442,7 +13450,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>484</v>
@@ -13457,10 +13465,10 @@
         <v>487</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -13468,7 +13476,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>484</v>
@@ -13483,7 +13491,7 @@
         <v>489</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>489</v>
@@ -13492,13 +13500,13 @@
         <v>488</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N251" s="4" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -13506,7 +13514,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>484</v>
@@ -13521,10 +13529,10 @@
         <v>490</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -13547,7 +13555,7 @@
         <v>491</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>491</v>
@@ -13561,7 +13569,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>492</v>
@@ -13576,7 +13584,7 @@
         <v>496</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>496</v>
@@ -13605,7 +13613,7 @@
         <v>497</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>497</v>
@@ -13634,7 +13642,7 @@
         <v>499</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>499</v>
@@ -13663,7 +13671,7 @@
         <v>494</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>494</v>
@@ -13692,7 +13700,7 @@
         <v>501</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>501</v>
@@ -13721,7 +13729,7 @@
         <v>503</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>503</v>
@@ -13750,7 +13758,7 @@
         <v>505</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>505</v>
@@ -13779,7 +13787,7 @@
         <v>507</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>507</v>
@@ -13808,7 +13816,7 @@
         <v>512</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>510</v>
@@ -13817,13 +13825,13 @@
         <v>512</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
@@ -13843,10 +13851,10 @@
         <v>109</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
@@ -13869,7 +13877,7 @@
         <v>517</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>517</v>
@@ -13878,10 +13886,10 @@
         <v>518</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
@@ -13889,7 +13897,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>516</v>
@@ -13901,13 +13909,13 @@
         <v>446</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
@@ -13930,7 +13938,7 @@
         <v>521</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>521</v>
@@ -13939,10 +13947,10 @@
         <v>519</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
@@ -13950,7 +13958,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>516</v>
@@ -13962,13 +13970,13 @@
         <v>446</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
@@ -13976,7 +13984,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>522</v>
@@ -13991,7 +13999,7 @@
         <v>525</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>525</v>
@@ -14000,10 +14008,10 @@
         <v>524</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="N268" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
@@ -14011,7 +14019,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>522</v>
@@ -14026,16 +14034,16 @@
         <v>523</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>523</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
@@ -14043,7 +14051,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>522</v>
@@ -14058,10 +14066,10 @@
         <v>526</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
@@ -14069,7 +14077,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>527</v>
@@ -14081,19 +14089,19 @@
         <v>26</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>530</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="N271" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
@@ -14101,7 +14109,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>527</v>
@@ -14116,7 +14124,7 @@
         <v>528</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>528</v>
@@ -14125,10 +14133,10 @@
         <v>529</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="N272" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
@@ -14139,7 +14147,7 @@
         <v>531</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D273" s="1">
         <v>2003</v>
@@ -14151,7 +14159,7 @@
         <v>532</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
@@ -14162,13 +14170,13 @@
         <v>257</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D274" s="5">
         <v>1982</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G274" s="5"/>
       <c r="H274" s="1" t="s">
@@ -14192,28 +14200,28 @@
         <v>59</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>540</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="J275" s="5" t="s">
         <v>442</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="N275" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
@@ -14221,7 +14229,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>533</v>
@@ -14236,7 +14244,7 @@
         <v>546</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>546</v>
@@ -14245,10 +14253,10 @@
         <v>545</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
@@ -14271,7 +14279,7 @@
         <v>539</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>539</v>
@@ -14280,10 +14288,10 @@
         <v>537</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
@@ -14306,7 +14314,7 @@
         <v>536</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>536</v>
@@ -14315,10 +14323,10 @@
         <v>535</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
@@ -14326,7 +14334,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>533</v>
@@ -14341,7 +14349,7 @@
         <v>544</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>544</v>
@@ -14350,13 +14358,13 @@
         <v>543</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="N279" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
@@ -14379,13 +14387,13 @@
         <v>541</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>541</v>
       </c>
       <c r="N280" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
@@ -14408,7 +14416,7 @@
         <v>549</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>549</v>
@@ -14417,10 +14425,10 @@
         <v>548</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
@@ -14440,19 +14448,19 @@
         <v>59</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J282" s="5" t="s">
         <v>576</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
@@ -14472,22 +14480,22 @@
         <v>59</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J283" s="5" t="s">
         <v>574</v>
       </c>
       <c r="K283" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N283" s="4" t="s">
         <v>1263</v>
-      </c>
-      <c r="N283" s="4" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
@@ -14507,22 +14515,22 @@
         <v>59</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J284" s="5" t="s">
         <v>570</v>
       </c>
       <c r="K284" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N284" s="4" t="s">
         <v>1263</v>
-      </c>
-      <c r="N284" s="4" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
@@ -14542,22 +14550,22 @@
         <v>59</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J285" s="5" t="s">
         <v>572</v>
       </c>
       <c r="K285" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="N285" s="4" t="s">
         <v>1263</v>
-      </c>
-      <c r="N285" s="4" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
@@ -14580,7 +14588,7 @@
         <v>552</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>552</v>
@@ -14589,10 +14597,10 @@
         <v>550</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
@@ -14612,22 +14620,22 @@
         <v>59</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J287" s="5" t="s">
         <v>554</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
@@ -14635,7 +14643,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>556</v>
@@ -14647,13 +14655,13 @@
         <v>26</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
@@ -14661,7 +14669,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>556</v>
@@ -14676,7 +14684,7 @@
         <v>559</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>557</v>
@@ -14688,13 +14696,13 @@
         <v>242</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N289" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
@@ -14702,7 +14710,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>560</v>
@@ -14718,7 +14726,7 @@
         <v>561</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -14726,7 +14734,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>562</v>
@@ -14741,13 +14749,13 @@
         <v>565</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>565</v>
       </c>
       <c r="N291" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
@@ -14755,7 +14763,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>562</v>
@@ -14770,7 +14778,7 @@
         <v>563</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>563</v>
@@ -14779,13 +14787,13 @@
         <v>564</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="N292" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
@@ -14793,7 +14801,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>566</v>
@@ -14808,7 +14816,7 @@
         <v>568</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I293" s="1" t="s">
         <v>568</v>
@@ -14817,10 +14825,10 @@
         <v>567</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
@@ -14828,7 +14836,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>566</v>
@@ -14840,13 +14848,13 @@
         <v>5</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="295" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14854,7 +14862,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>566</v>
@@ -14866,19 +14874,19 @@
         <v>5</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H295" s="5" t="s">
         <v>569</v>
       </c>
       <c r="L295" s="5" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="N295" s="10" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="296" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14886,7 +14894,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>566</v>
@@ -14898,19 +14906,19 @@
         <v>5</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>578</v>
       </c>
       <c r="L296" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="N296" s="10" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
@@ -14933,7 +14941,7 @@
         <v>581</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>581</v>
@@ -14942,10 +14950,10 @@
         <v>579</v>
       </c>
       <c r="K297" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
@@ -14953,7 +14961,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>566</v>
@@ -14965,13 +14973,13 @@
         <v>5</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
@@ -14991,22 +14999,22 @@
         <v>5</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J299" s="5" t="s">
         <v>582</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
@@ -15014,7 +15022,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>566</v>
@@ -15026,13 +15034,13 @@
         <v>5</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
@@ -15040,10 +15048,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="D301" s="1">
         <v>2016</v>
@@ -15052,13 +15060,13 @@
         <v>45</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
@@ -15066,10 +15074,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D302" s="1">
         <v>2016</v>
@@ -15078,13 +15086,13 @@
         <v>45</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
@@ -15092,7 +15100,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>584</v>
@@ -15107,7 +15115,7 @@
         <v>587</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>585</v>
@@ -15119,13 +15127,13 @@
         <v>586</v>
       </c>
       <c r="K303" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="N303" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
@@ -15148,7 +15156,7 @@
         <v>588</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>588</v>
@@ -15160,13 +15168,13 @@
         <v>591</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N304" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
@@ -15189,7 +15197,7 @@
         <v>596</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>592</v>
@@ -15201,10 +15209,10 @@
         <v>593</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="N305" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="306" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -15227,7 +15235,7 @@
         <v>597</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>597</v>
@@ -15236,13 +15244,13 @@
         <v>600</v>
       </c>
       <c r="K306" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L306" s="1" t="s">
         <v>597</v>
       </c>
       <c r="N306" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
@@ -15265,13 +15273,13 @@
         <v>603</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>603</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
@@ -15294,7 +15302,7 @@
         <v>604</v>
       </c>
       <c r="K308" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
@@ -15305,7 +15313,7 @@
         <v>610</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="D309" s="1">
         <v>2016</v>
@@ -15317,7 +15325,7 @@
         <v>609</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>609</v>
@@ -15346,7 +15354,7 @@
         <v>606</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>606</v>
@@ -15355,13 +15363,13 @@
         <v>608</v>
       </c>
       <c r="K310" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L310" s="1" t="s">
         <v>606</v>
       </c>
       <c r="N310" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
@@ -15384,10 +15392,10 @@
         <v>613</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
@@ -15395,7 +15403,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>611</v>
@@ -15407,13 +15415,13 @@
         <v>45</v>
       </c>
       <c r="J312" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
@@ -15421,7 +15429,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>614</v>
@@ -15433,19 +15441,19 @@
         <v>5</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
@@ -15468,10 +15476,10 @@
         <v>615</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\anomaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B844D698-2FE7-42D7-AB6C-2008E9E09A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35905596-7617-4C29-823E-E6700247B05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="0" windowWidth="29145" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15750" yWindow="4620" windowWidth="21825" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="1495">
   <si>
     <t>author</t>
   </si>
@@ -5069,6 +5069,17 @@
   </si>
   <si>
     <t>We change JKP's alias 'prc' to 'price' as 'prc' exists in crspm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trend factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Han, Zhou, and Zhu</t>
+  </si>
+  <si>
+    <t>trend_factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5493,11 +5504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O314"/>
+  <dimension ref="A1:O315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N240" sqref="N240"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10680,35 +10691,23 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>314</v>
+      <c r="B164" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D164" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G164" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D164" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G164" s="5" t="s">
         <v>1108</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J164" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -10716,37 +10715,34 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D165" s="1">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>1382</v>
+        <v>316</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>1108</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>1238</v>
+        <v>1134</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="N165" s="4" t="s">
-        <v>1239</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
@@ -10754,7 +10750,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>318</v>
@@ -10765,14 +10761,26 @@
       <c r="E166" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F166" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="J166" s="5" t="s">
-        <v>753</v>
+        <v>320</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>1292</v>
+        <v>1238</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>1239</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -10780,7 +10788,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1330</v>
+        <v>322</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>318</v>
@@ -10791,17 +10799,14 @@
       <c r="E167" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>323</v>
+      <c r="J167" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>1292</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -10809,25 +10814,28 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>328</v>
+        <v>1330</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>700</v>
+        <v>318</v>
       </c>
       <c r="D168" s="1">
-        <v>1984</v>
+        <v>1996</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J168" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="K168" s="1" t="s">
-        <v>1290</v>
+        <v>19</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -10835,10 +10843,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>160</v>
+        <v>328</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>161</v>
+        <v>700</v>
       </c>
       <c r="D169" s="1">
         <v>1984</v>
@@ -10846,53 +10854,44 @@
       <c r="E169" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F169" s="5"/>
-      <c r="H169" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J169" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>358</v>
+      <c r="B170" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>329</v>
+        <v>161</v>
       </c>
       <c r="D170" s="1">
-        <v>2008</v>
+        <v>1984</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>359</v>
+        <v>94</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="H170" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>357</v>
+        <v>754</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -10900,7 +10899,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>329</v>
@@ -10912,22 +10911,22 @@
         <v>19</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -10935,7 +10934,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>329</v>
@@ -10947,22 +10946,22 @@
         <v>19</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -10970,7 +10969,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>329</v>
@@ -10982,22 +10981,22 @@
         <v>19</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -11005,7 +11004,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>329</v>
@@ -11017,22 +11016,22 @@
         <v>19</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -11040,7 +11039,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>329</v>
@@ -11052,22 +11051,22 @@
         <v>19</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -11075,7 +11074,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>329</v>
@@ -11087,22 +11086,22 @@
         <v>19</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -11110,7 +11109,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>329</v>
@@ -11122,22 +11121,22 @@
         <v>19</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -11145,7 +11144,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>329</v>
@@ -11157,22 +11156,22 @@
         <v>19</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -11180,7 +11179,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>329</v>
@@ -11192,48 +11191,57 @@
         <v>19</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>1166</v>
+      <c r="B180" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>701</v>
+        <v>329</v>
       </c>
       <c r="D180" s="1">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F180" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="J180" s="5" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -11241,7 +11249,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>701</v>
@@ -11253,13 +11261,13 @@
         <v>19</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -11267,37 +11275,25 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>362</v>
+        <v>701</v>
       </c>
       <c r="D182" s="1">
-        <v>2004</v>
+        <v>2013</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="N182" s="4" t="s">
-        <v>1469</v>
+        <v>917</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -11305,7 +11301,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>362</v>
@@ -11317,22 +11313,22 @@
         <v>59</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>918</v>
+        <v>365</v>
       </c>
       <c r="N183" s="4" t="s">
         <v>1469</v>
@@ -11343,28 +11339,37 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D184" s="1">
-        <v>1992</v>
+        <v>2004</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>369</v>
+      <c r="I184" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>1286</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>369</v>
+        <v>918</v>
+      </c>
+      <c r="N184" s="4" t="s">
+        <v>1469</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -11372,7 +11377,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>368</v>
@@ -11384,16 +11389,16 @@
         <v>59</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>1030</v>
+        <v>369</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
@@ -11401,28 +11406,28 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D186" s="1">
-        <v>2009</v>
+        <v>1992</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>919</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -11430,25 +11435,28 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>373</v>
+        <v>1172</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D187" s="1">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J187" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>1285</v>
+        <v>19</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -11456,7 +11464,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>372</v>
@@ -11468,13 +11476,13 @@
         <v>45</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -11482,25 +11490,25 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1173</v>
+        <v>374</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D189" s="1">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -11508,34 +11516,25 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D190" s="1">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>377</v>
+        <v>19</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>103</v>
+        <v>758</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -11543,7 +11542,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>376</v>
@@ -11554,14 +11553,23 @@
       <c r="E191" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F191" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="J191" s="5" t="s">
-        <v>380</v>
+        <v>103</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -11569,7 +11577,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>379</v>
+        <v>1175</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>376</v>
@@ -11580,20 +11588,14 @@
       <c r="E192" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F192" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G192" s="5" t="s">
-        <v>1108</v>
-      </c>
       <c r="J192" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -11601,31 +11603,31 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1346</v>
+        <v>379</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D193" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1064</v>
+        <v>1374</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>1382</v>
+        <v>1108</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>1043</v>
+        <v>1283</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -11633,7 +11635,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>381</v>
@@ -11645,22 +11647,19 @@
         <v>26</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="J194" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>1043</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -11668,7 +11667,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>381</v>
@@ -11680,19 +11679,22 @@
         <v>26</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>1382</v>
       </c>
+      <c r="H195" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="J195" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>1043</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -11700,37 +11702,31 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1176</v>
+        <v>1345</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>634</v>
+        <v>381</v>
       </c>
       <c r="D196" s="1">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>635</v>
+        <v>1063</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>635</v>
+        <v>1382</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>636</v>
+        <v>384</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="N196" s="4" t="s">
-        <v>1419</v>
+        <v>1043</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -11738,40 +11734,37 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>325</v>
+        <v>1176</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>326</v>
+        <v>634</v>
       </c>
       <c r="D197" s="1">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>327</v>
+        <v>635</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>1384</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>324</v>
+        <v>633</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>327</v>
+        <v>635</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>712</v>
+        <v>636</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>929</v>
+        <v>1053</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -11779,113 +11772,116 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1045</v>
+        <v>326</v>
       </c>
       <c r="D198" s="1">
-        <v>1990</v>
+        <v>2009</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>1124</v>
+        <v>1384</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>389</v>
+        <v>327</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>387</v>
+        <v>712</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>1046</v>
+        <v>1057</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="199" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+      <c r="N198" s="4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>390</v>
+        <v>1045</v>
       </c>
       <c r="D199" s="1">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>1384</v>
+        <v>1124</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="N199" s="4" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D200" s="1">
-        <v>1993</v>
+        <v>2006</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>397</v>
+        <v>1384</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
+      </c>
+      <c r="N200" s="4" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -11893,7 +11889,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1177</v>
+        <v>396</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>395</v>
@@ -11905,13 +11901,25 @@
         <v>26</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>665</v>
+        <v>398</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>1124</v>
       </c>
+      <c r="H201" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="I201" s="1" t="s">
-        <v>665</v>
+        <v>398</v>
+      </c>
+      <c r="J201" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -11919,7 +11927,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>400</v>
+        <v>1177</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>395</v>
@@ -11931,25 +11939,13 @@
         <v>26</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>402</v>
+        <v>665</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="I202" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J202" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>933</v>
+        <v>665</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
@@ -11957,7 +11953,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1178</v>
+        <v>400</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>395</v>
@@ -11969,13 +11965,25 @@
         <v>26</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>666</v>
+        <v>402</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>1124</v>
       </c>
+      <c r="H203" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="I203" s="1" t="s">
-        <v>666</v>
+        <v>402</v>
+      </c>
+      <c r="J203" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -11983,37 +11991,25 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>100</v>
+        <v>1178</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="D204" s="1">
-        <v>2005</v>
+        <v>1993</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G204" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>99</v>
+        <v>666</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>1124</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J204" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="K204" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>934</v>
+        <v>666</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
@@ -12021,25 +12017,37 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1179</v>
+        <v>100</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1055</v>
+        <v>101</v>
       </c>
       <c r="D205" s="1">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1056</v>
+        <v>102</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>1384</v>
+        <v>99</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>1382</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>391</v>
+        <v>99</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
@@ -12047,25 +12055,25 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>405</v>
+        <v>1179</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>404</v>
+        <v>1055</v>
       </c>
       <c r="D206" s="1">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J206" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="K206" s="1" t="s">
-        <v>1282</v>
-      </c>
-      <c r="L206" s="1" t="s">
-        <v>935</v>
+        <v>1056</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
@@ -12073,49 +12081,49 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D207" s="5">
-        <v>2008</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>1452</v>
-      </c>
-      <c r="F207" s="5"/>
-      <c r="H207" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N207" s="4" t="s">
-        <v>1456</v>
+        <v>405</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2014</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D208" s="1">
-        <v>1996</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J208" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="K208" s="1" t="s">
-        <v>1281</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>936</v>
+      <c r="B208" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D208" s="5">
+        <v>2008</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F208" s="5"/>
+      <c r="H208" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N208" s="4" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -12123,7 +12131,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1180</v>
+        <v>407</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>406</v>
@@ -12135,51 +12143,39 @@
         <v>26</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>760</v>
+        <v>410</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>1332</v>
+      <c r="B210" s="4" t="s">
+        <v>1180</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D210" s="1">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="J210" s="5" t="s">
-        <v>416</v>
+        <v>760</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>1102</v>
+        <v>1281</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>415</v>
+        <v>937</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.3">
@@ -12187,7 +12183,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1182</v>
+        <v>1332</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>412</v>
@@ -12198,14 +12194,26 @@
       <c r="E211" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F211" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="J211" s="5" t="s">
-        <v>762</v>
+        <v>416</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>1278</v>
+        <v>1102</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>941</v>
+        <v>415</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.3">
@@ -12213,7 +12221,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>203</v>
+        <v>1182</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>412</v>
@@ -12224,23 +12232,14 @@
       <c r="E212" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="J212" s="5" t="s">
-        <v>411</v>
+        <v>762</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.3">
@@ -12248,7 +12247,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1181</v>
+        <v>203</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>412</v>
@@ -12259,14 +12258,23 @@
       <c r="E213" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F213" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="J213" s="5" t="s">
-        <v>761</v>
+        <v>411</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
@@ -12274,7 +12282,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>412</v>
@@ -12286,21 +12294,21 @@
         <v>26</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>414</v>
+        <v>761</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>1103</v>
+        <v>1280</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>1350</v>
+      <c r="B215" s="1" t="s">
+        <v>1190</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>412</v>
@@ -12311,52 +12319,40 @@
       <c r="E215" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="G215" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>667</v>
+      <c r="J215" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>1183</v>
+      <c r="B216" s="4" t="s">
+        <v>1350</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D216" s="1">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>420</v>
+        <v>667</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="J216" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="N216" s="4" t="s">
-        <v>1243</v>
+        <v>667</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.3">
@@ -12364,7 +12360,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>419</v>
@@ -12375,14 +12371,26 @@
       <c r="E217" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F217" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>420</v>
+      </c>
       <c r="J217" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
+      </c>
+      <c r="N217" s="4" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
@@ -12390,68 +12398,53 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>638</v>
+        <v>1184</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>639</v>
+        <v>419</v>
       </c>
       <c r="D218" s="1">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>637</v>
+        <v>45</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" s="13" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D219" s="8">
-        <v>2004</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F219" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H219" s="8"/>
-      <c r="I219" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="J219" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="K219" s="8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L219" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="M219" s="8"/>
-      <c r="N219" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="O219" s="17"/>
+      <c r="B219" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D219" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="13" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>422</v>
@@ -12463,138 +12456,141 @@
         <v>5</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="H220" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="I220" s="8"/>
-      <c r="J220" s="17"/>
-      <c r="K220" s="8"/>
+      <c r="H220" s="8"/>
+      <c r="I220" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="J220" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="K220" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="L220" s="8" t="s">
         <v>944</v>
       </c>
       <c r="M220" s="8"/>
       <c r="N220" s="9" t="s">
-        <v>1347</v>
+        <v>1421</v>
       </c>
       <c r="O220" s="17"/>
     </row>
-    <row r="221" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C221" s="1" t="s">
+      <c r="B221" s="13" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C221" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="8">
         <v>2004</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="E221" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="M221" s="1"/>
-      <c r="N221" s="4"/>
-      <c r="O221" s="5"/>
-    </row>
-    <row r="222" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F221" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H221" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="I221" s="8"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="8"/>
+      <c r="L221" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="M221" s="8"/>
+      <c r="N221" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="O221" s="17"/>
+    </row>
+    <row r="222" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D222" s="5">
-        <v>2011</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5" t="s">
-        <v>429</v>
-      </c>
+      <c r="B222" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D222" s="1">
+        <v>2004</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
       <c r="J222" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="K222" s="5"/>
-      <c r="L222" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="M222" s="5"/>
-      <c r="N222" s="10"/>
+        <v>426</v>
+      </c>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="M222" s="1"/>
+      <c r="N222" s="4"/>
       <c r="O222" s="5"/>
     </row>
-    <row r="223" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" s="15" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="D223" s="15">
-        <v>1979</v>
-      </c>
-      <c r="E223" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F223" s="15" t="s">
-        <v>1458</v>
-      </c>
-      <c r="G223" s="15" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I223" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="J223" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="K223" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="L223" s="15" t="s">
-        <v>1457</v>
-      </c>
-      <c r="N223" s="16" t="s">
-        <v>1462</v>
-      </c>
+      <c r="B223" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D223" s="5">
+        <v>2011</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="K223" s="5"/>
+      <c r="L223" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="M223" s="5"/>
+      <c r="N223" s="10"/>
+      <c r="O223" s="5"/>
     </row>
     <row r="224" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>430</v>
@@ -12606,94 +12602,89 @@
         <v>26</v>
       </c>
       <c r="F224" s="15" t="s">
-        <v>431</v>
+        <v>1458</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H224" s="15" t="s">
-        <v>431</v>
+        <v>1124</v>
+      </c>
+      <c r="I224" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="J224" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="K224" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="L224" s="15" t="s">
+        <v>1457</v>
       </c>
       <c r="N224" s="16" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C225" s="5" t="s">
+      <c r="B225" s="15" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C225" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="D225" s="5">
+      <c r="D225" s="15">
         <v>1979</v>
       </c>
-      <c r="E225" s="5" t="s">
+      <c r="E225" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J225" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="K225" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="L225" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="N225" s="10"/>
-    </row>
-    <row r="226" spans="1:15" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="F225" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G225" s="15" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H225" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="N225" s="16" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D226" s="5">
-        <v>2006</v>
+        <v>1979</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H226" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="I226" s="5" t="s">
-        <v>438</v>
+        <v>26</v>
       </c>
       <c r="J226" s="5" t="s">
-        <v>439</v>
+        <v>715</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>1135</v>
+        <v>785</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>948</v>
-      </c>
-      <c r="M226" s="5"/>
-      <c r="N226" s="10" t="s">
-        <v>1476</v>
-      </c>
-      <c r="O226" s="5"/>
-    </row>
-    <row r="227" spans="1:15" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>947</v>
+      </c>
+      <c r="N226" s="10"/>
+    </row>
+    <row r="227" spans="1:15" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>435</v>
@@ -12705,89 +12696,106 @@
         <v>19</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>1108</v>
       </c>
+      <c r="H227" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="I227" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="J227" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K227" s="5" t="s">
         <v>1135</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>434</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="M227" s="5"/>
       <c r="N227" s="10" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="O227" s="5"/>
+    </row>
+    <row r="228" spans="1:15" s="5" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C228" s="1" t="s">
+      <c r="B228" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C228" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="5">
         <v>2006</v>
       </c>
-      <c r="E228" s="1" t="s">
+      <c r="E228" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G228" s="1" t="s">
+      <c r="F228" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G228" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="I228" s="1" t="s">
-        <v>440</v>
+      <c r="I228" s="5" t="s">
+        <v>436</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="K228" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K228" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="L228" s="1" t="s">
-        <v>949</v>
+      <c r="L228" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="N228" s="10" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>450</v>
+        <v>1189</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D229" s="1">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>1277</v>
+        <v>1135</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+      <c r="N229" s="10" t="s">
+        <v>1476</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.3">
@@ -12795,71 +12803,59 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1204</v>
+        <v>450</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1441</v>
+        <v>449</v>
       </c>
       <c r="D230" s="1">
-        <v>1995</v>
+        <v>2014</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F230" s="5" t="s">
-        <v>1442</v>
-      </c>
-      <c r="G230" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1191</v>
+        <v>1204</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>452</v>
+        <v>1441</v>
       </c>
       <c r="D231" s="1">
-        <v>2011</v>
+        <v>1995</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J231" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="K231" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="N231" s="4" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>452</v>
@@ -12870,14 +12866,26 @@
       <c r="E232" s="1" t="s">
         <v>453</v>
       </c>
+      <c r="F232" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>1244</v>
+      </c>
       <c r="J232" s="5" t="s">
-        <v>763</v>
+        <v>454</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
+      </c>
+      <c r="N232" s="4" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.3">
@@ -12885,45 +12893,36 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D233" s="1">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J233" s="5" t="s">
-        <v>459</v>
+        <v>763</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>1276</v>
+        <v>1246</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1333</v>
+        <v>1193</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1334</v>
+        <v>456</v>
       </c>
       <c r="D234" s="1">
         <v>2008</v>
@@ -12932,51 +12931,60 @@
         <v>45</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>1382</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J234" s="5" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>1247</v>
+        <v>1276</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="N234" s="4" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>461</v>
+        <v>1333</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>460</v>
+        <v>1334</v>
       </c>
       <c r="D235" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>764</v>
+        <v>455</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>1275</v>
+        <v>1247</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
+      </c>
+      <c r="N235" s="4" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.3">
@@ -12984,7 +12992,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>460</v>
@@ -12996,13 +13004,13 @@
         <v>26</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K236" s="1" t="s">
         <v>1275</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.3">
@@ -13010,31 +13018,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D237" s="1">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>463</v>
+      <c r="J237" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>1275</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="N237" s="4" t="s">
-        <v>1061</v>
+        <v>956</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.3">
@@ -13042,7 +13044,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>465</v>
@@ -13054,16 +13056,16 @@
         <v>26</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>1124</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N238" s="4" t="s">
         <v>1061</v>
@@ -13074,34 +13076,31 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>129</v>
+        <v>467</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>668</v>
+        <v>465</v>
       </c>
       <c r="D239" s="1">
-        <v>1982</v>
+        <v>1995</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1490</v>
+        <v>466</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="I239" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="J239" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="K239" s="1" t="s">
-        <v>1274</v>
+      <c r="H239" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>958</v>
       </c>
       <c r="N239" s="4" t="s">
-        <v>1491</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.3">
@@ -13109,139 +13108,136 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>469</v>
+        <v>129</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>468</v>
+        <v>668</v>
       </c>
       <c r="D240" s="1">
-        <v>2005</v>
+        <v>1982</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F240" s="5"/>
-      <c r="H240" s="1" t="s">
-        <v>470</v>
+        <v>109</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>1490</v>
       </c>
       <c r="J240" s="5" t="s">
-        <v>471</v>
+        <v>669</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>1273</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>959</v>
+        <v>1274</v>
+      </c>
+      <c r="N240" s="4" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="7" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D241" s="6">
+      <c r="B241" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D241" s="1">
         <v>2005</v>
       </c>
-      <c r="E241" s="6" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H241" s="6"/>
-      <c r="I241" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="J241" s="6"/>
-      <c r="K241" s="6"/>
-      <c r="L241" s="6"/>
-      <c r="M241" s="6"/>
-      <c r="N241" s="7" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E241" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F241" s="5"/>
+      <c r="H241" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D242" s="1">
-        <v>1999</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F242" s="5" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J242" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="K242" s="1" t="s">
-        <v>1272</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="N242" s="4" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B242" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D242" s="6">
+        <v>2005</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G242" s="6" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="7" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>480</v>
+        <v>299</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>472</v>
+        <v>297</v>
       </c>
       <c r="D243" s="1">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F243" s="1" t="s">
-        <v>482</v>
+      <c r="F243" s="5" t="s">
+        <v>1424</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>482</v>
+        <v>1124</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="J243" s="5" t="s">
-        <v>481</v>
+        <v>766</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>1249</v>
+        <v>1272</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N243" s="4" t="s">
-        <v>1251</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -13249,7 +13245,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1194</v>
+        <v>480</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>472</v>
@@ -13260,14 +13256,26 @@
       <c r="E244" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F244" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="J244" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
+      </c>
+      <c r="N244" s="4" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -13275,31 +13283,25 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1355</v>
+        <v>1194</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>472</v>
       </c>
       <c r="D245" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>479</v>
+        <v>19</v>
+      </c>
+      <c r="J245" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>1250</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="N245" s="4" t="s">
-        <v>1485</v>
+        <v>962</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -13307,37 +13309,31 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>474</v>
+        <v>1355</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>472</v>
       </c>
       <c r="D246" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>475</v>
+        <v>1484</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>1382</v>
+        <v>1124</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J246" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>1010</v>
+        <v>479</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>1104</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -13345,7 +13341,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>472</v>
@@ -13357,25 +13353,22 @@
         <v>19</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>681</v>
+        <v>475</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="I247" s="1" t="s">
-        <v>681</v>
+        <v>475</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>476</v>
+        <v>713</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N247" s="4" t="s">
         <v>1104</v>
@@ -13386,7 +13379,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1195</v>
+        <v>477</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>472</v>
@@ -13397,14 +13390,29 @@
       <c r="E248" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F248" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="J248" s="5" t="s">
-        <v>682</v>
+        <v>476</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
+      </c>
+      <c r="N248" s="4" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -13412,37 +13420,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D249" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G249" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>486</v>
+        <v>19</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>485</v>
+        <v>682</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>1252</v>
+        <v>1012</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="N249" s="4" t="s">
-        <v>1482</v>
+        <v>966</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -13450,7 +13446,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>484</v>
@@ -13461,14 +13457,26 @@
       <c r="E250" s="1" t="s">
         <v>453</v>
       </c>
+      <c r="F250" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="J250" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
+      </c>
+      <c r="N250" s="4" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -13476,7 +13484,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>484</v>
@@ -13487,26 +13495,14 @@
       <c r="E251" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F251" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G251" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="J251" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="N251" s="4" t="s">
-        <v>1482</v>
+        <v>968</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -13514,7 +13510,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>484</v>
@@ -13525,14 +13521,26 @@
       <c r="E252" s="1" t="s">
         <v>453</v>
       </c>
+      <c r="F252" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="J252" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
+      </c>
+      <c r="N252" s="4" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -13540,28 +13548,25 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>493</v>
+        <v>1197</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="D253" s="1">
-        <v>1989</v>
+        <v>2014</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G253" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>491</v>
+        <v>453</v>
+      </c>
+      <c r="J253" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>1253</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>491</v>
+        <v>970</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
@@ -13569,7 +13574,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1200</v>
+        <v>493</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>492</v>
@@ -13581,16 +13586,16 @@
         <v>446</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
@@ -13598,7 +13603,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>498</v>
+        <v>1200</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>492</v>
@@ -13610,16 +13615,16 @@
         <v>446</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
@@ -13627,7 +13632,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>492</v>
@@ -13639,16 +13644,16 @@
         <v>446</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
@@ -13656,7 +13661,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>492</v>
@@ -13668,16 +13673,16 @@
         <v>446</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
@@ -13685,7 +13690,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>492</v>
@@ -13697,16 +13702,16 @@
         <v>446</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
@@ -13714,7 +13719,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>492</v>
@@ -13726,16 +13731,16 @@
         <v>446</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
@@ -13743,7 +13748,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>492</v>
@@ -13755,16 +13760,16 @@
         <v>446</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
@@ -13772,7 +13777,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>492</v>
@@ -13784,16 +13789,16 @@
         <v>446</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
@@ -13801,37 +13806,28 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="D262" s="1">
-        <v>2012</v>
+        <v>1989</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G262" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J262" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="K262" s="1" t="s">
-        <v>1058</v>
+        <v>507</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>971</v>
+        <v>507</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
@@ -13839,57 +13835,60 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D263" s="1">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>109</v>
+        <v>19</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>767</v>
+        <v>711</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>1058</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>515</v>
+      <c r="B264" s="1" t="s">
+        <v>514</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D264" s="1">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I264" s="1" t="s">
-        <v>517</v>
+        <v>109</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>1254</v>
+        <v>767</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
@@ -13897,7 +13896,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>1201</v>
+        <v>515</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>516</v>
@@ -13908,14 +13907,23 @@
       <c r="E265" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="F265" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>517</v>
+      </c>
       <c r="J265" s="5" t="s">
-        <v>768</v>
+        <v>518</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
@@ -13923,7 +13931,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>520</v>
+        <v>1201</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>516</v>
@@ -13934,23 +13942,14 @@
       <c r="E266" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F266" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G266" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I266" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J266" s="5" t="s">
-        <v>519</v>
+        <v>768</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
@@ -13958,7 +13957,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>1202</v>
+        <v>520</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>516</v>
@@ -13969,49 +13968,49 @@
       <c r="E267" s="1" t="s">
         <v>446</v>
       </c>
+      <c r="F267" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="J267" s="5" t="s">
-        <v>769</v>
+        <v>519</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="12" t="s">
-        <v>1428</v>
+      <c r="B268" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D268" s="1">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F268" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G268" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>525</v>
+        <v>446</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>524</v>
+        <v>769</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="N268" s="4" t="s">
-        <v>1427</v>
+        <v>1257</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
@@ -14019,7 +14018,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>522</v>
@@ -14031,27 +14030,30 @@
         <v>5</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G269" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="H269" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="L269" s="1" t="s">
-        <v>977</v>
+      <c r="I269" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>1255</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>1203</v>
+      <c r="B270" s="12" t="s">
+        <v>1429</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>522</v>
@@ -14062,46 +14064,46 @@
       <c r="E270" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J270" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="K270" s="1" t="s">
-        <v>1256</v>
+      <c r="F270" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>523</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
+      </c>
+      <c r="N270" s="4" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="11" t="s">
-        <v>1432</v>
+      <c r="B271" s="1" t="s">
+        <v>1203</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D271" s="1">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F271" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G271" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>530</v>
+        <v>5</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>1256</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="N271" s="4" t="s">
-        <v>1430</v>
+        <v>978</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
@@ -14109,7 +14111,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>527</v>
@@ -14121,45 +14123,54 @@
         <v>26</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>528</v>
+        <v>1433</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="J272" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="K272" s="1" t="s">
-        <v>1013</v>
+        <v>1124</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>979</v>
       </c>
       <c r="N272" s="4" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>531</v>
+      <c r="B273" s="11" t="s">
+        <v>1431</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>702</v>
+        <v>527</v>
       </c>
       <c r="D273" s="1">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="L273" s="1" t="s">
-        <v>980</v>
+        <v>529</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N273" s="4" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
@@ -14167,69 +14178,51 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>257</v>
+        <v>531</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D274" s="5">
-        <v>1982</v>
-      </c>
-      <c r="E274" s="5" t="s">
-        <v>1416</v>
-      </c>
-      <c r="G274" s="5"/>
-      <c r="H274" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="275" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+      <c r="D274" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>443</v>
+        <v>257</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="D275" s="1">
-        <v>2005</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F275" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G275" s="5" t="s">
-        <v>1382</v>
-      </c>
+        <v>1415</v>
+      </c>
+      <c r="D275" s="5">
+        <v>1982</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="G275" s="5"/>
       <c r="H275" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J275" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="K275" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L275" s="1" t="s">
-        <v>983</v>
-      </c>
-      <c r="N275" s="4" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1336</v>
+        <v>443</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>533</v>
@@ -14241,22 +14234,28 @@
         <v>59</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>546</v>
+        <v>1259</v>
       </c>
       <c r="G276" s="5" t="s">
         <v>1382</v>
       </c>
+      <c r="H276" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="I276" s="1" t="s">
-        <v>546</v>
+        <v>1259</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>545</v>
+        <v>442</v>
       </c>
       <c r="K276" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
+      </c>
+      <c r="N276" s="4" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
@@ -14264,7 +14263,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>538</v>
+        <v>1336</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>533</v>
@@ -14276,22 +14275,22 @@
         <v>59</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G277" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>1260</v>
+        <v>1015</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
@@ -14299,7 +14298,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>533</v>
@@ -14311,22 +14310,22 @@
         <v>59</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G278" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K278" s="1" t="s">
         <v>1260</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
@@ -14334,7 +14333,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1337</v>
+        <v>534</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>533</v>
@@ -14346,25 +14345,22 @@
         <v>59</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G279" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="J279" s="5" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>1015</v>
+        <v>1260</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="N279" s="4" t="s">
-        <v>1435</v>
+        <v>981</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
@@ -14372,7 +14368,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>542</v>
+        <v>1337</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>533</v>
@@ -14384,16 +14380,25 @@
         <v>59</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G280" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="H280" s="1" t="s">
-        <v>541</v>
+      <c r="I280" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J280" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>1014</v>
       </c>
       <c r="N280" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
@@ -14401,7 +14406,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>533</v>
@@ -14413,22 +14418,16 @@
         <v>59</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="G281" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="I281" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J281" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="K281" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>985</v>
+      <c r="H281" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N281" s="4" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
@@ -14436,7 +14435,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>533</v>
@@ -14448,19 +14447,22 @@
         <v>59</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>670</v>
+        <v>549</v>
       </c>
       <c r="G282" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>670</v>
+        <v>549</v>
       </c>
       <c r="J282" s="5" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>1260</v>
+        <v>1015</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
@@ -14468,7 +14470,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>533</v>
@@ -14480,22 +14482,19 @@
         <v>59</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J283" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="N283" s="4" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
@@ -14503,7 +14502,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>533</v>
@@ -14515,16 +14514,16 @@
         <v>59</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1261</v>
+        <v>672</v>
       </c>
       <c r="G284" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>1261</v>
+        <v>672</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K284" s="1" t="s">
         <v>1262</v>
@@ -14538,7 +14537,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>533</v>
@@ -14550,16 +14549,16 @@
         <v>59</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>671</v>
+        <v>1261</v>
       </c>
       <c r="G285" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>671</v>
+        <v>1261</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K285" s="1" t="s">
         <v>1262</v>
@@ -14573,7 +14572,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>533</v>
@@ -14585,22 +14584,22 @@
         <v>59</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>552</v>
+        <v>671</v>
       </c>
       <c r="G286" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>552</v>
+        <v>671</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="L286" s="1" t="s">
-        <v>986</v>
+        <v>1262</v>
+      </c>
+      <c r="N286" s="4" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
@@ -14608,7 +14607,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>533</v>
@@ -14620,22 +14619,22 @@
         <v>59</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1265</v>
+        <v>552</v>
       </c>
       <c r="G287" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>1265</v>
+        <v>552</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>1264</v>
+        <v>1015</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
@@ -14643,25 +14642,34 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1210</v>
+        <v>553</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="D288" s="1">
-        <v>1985</v>
+        <v>2005</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>1265</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>770</v>
+        <v>554</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>781</v>
+        <v>1264</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
@@ -14669,7 +14677,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1153</v>
+        <v>1210</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>556</v>
@@ -14680,29 +14688,14 @@
       <c r="E289" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F289" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G289" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I289" s="1" t="s">
-        <v>559</v>
-      </c>
       <c r="J289" s="5" t="s">
-        <v>242</v>
+        <v>770</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="N289" s="4" t="s">
-        <v>1060</v>
+        <v>989</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
@@ -14710,60 +14703,72 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1205</v>
+        <v>1153</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D290" s="1">
-        <v>2008</v>
+        <v>1985</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F290" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>1382</v>
+      </c>
       <c r="H290" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J290" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>779</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="291" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>988</v>
+      </c>
+      <c r="N290" s="4" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="11" t="s">
-        <v>1465</v>
+      <c r="B291" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D291" s="1">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F291" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="G291" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="N291" s="4" t="s">
-        <v>1468</v>
-      </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="F291" s="5"/>
+      <c r="H291" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>562</v>
@@ -14775,60 +14780,54 @@
         <v>5</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G292" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="H292" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J292" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="K292" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="L292" s="1" t="s">
-        <v>1343</v>
+      <c r="I292" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="N292" s="4" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>1338</v>
+      <c r="B293" s="11" t="s">
+        <v>1464</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D293" s="1">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G293" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="I293" s="1" t="s">
-        <v>568</v>
+      <c r="H293" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>1266</v>
+        <v>1016</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>991</v>
+        <v>1343</v>
+      </c>
+      <c r="N293" s="4" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
@@ -14836,7 +14835,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1206</v>
+        <v>1338</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>566</v>
@@ -14847,46 +14846,49 @@
       <c r="E294" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F294" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>568</v>
+      </c>
       <c r="J294" s="5" t="s">
-        <v>771</v>
+        <v>567</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="295" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B295" s="5" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C295" s="5" t="s">
+      <c r="B295" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D295" s="5">
+      <c r="D295" s="1">
         <v>2008</v>
       </c>
-      <c r="E295" s="5" t="s">
+      <c r="E295" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F295" s="5" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G295" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H295" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="L295" s="5" t="s">
-        <v>1443</v>
-      </c>
-      <c r="N295" s="10" t="s">
-        <v>1440</v>
+      <c r="J295" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="296" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14894,7 +14896,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>566</v>
@@ -14906,54 +14908,51 @@
         <v>5</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G296" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="L296" s="5" t="s">
-        <v>993</v>
+        <v>1443</v>
       </c>
       <c r="N296" s="10" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>296</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C297" s="1" t="s">
+      <c r="B297" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C297" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="5">
         <v>2008</v>
       </c>
-      <c r="E297" s="1" t="s">
+      <c r="E297" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F297" s="1" t="s">
-        <v>581</v>
+      <c r="F297" s="5" t="s">
+        <v>1447</v>
       </c>
       <c r="G297" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="I297" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="J297" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="K297" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="L297" s="1" t="s">
-        <v>994</v>
+      <c r="H297" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="L297" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="N297" s="10" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
@@ -14961,7 +14960,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1207</v>
+        <v>580</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>566</v>
@@ -14972,14 +14971,23 @@
       <c r="E298" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F298" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>581</v>
+      </c>
       <c r="J298" s="5" t="s">
-        <v>772</v>
+        <v>579</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
@@ -14987,7 +14995,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>583</v>
+        <v>1207</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>566</v>
@@ -14998,23 +15006,14 @@
       <c r="E299" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F299" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G299" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>1268</v>
-      </c>
       <c r="J299" s="5" t="s">
-        <v>582</v>
+        <v>772</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
@@ -15022,7 +15021,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1208</v>
+        <v>583</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>566</v>
@@ -15033,40 +15032,49 @@
       <c r="E300" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F300" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>1268</v>
+      </c>
       <c r="J300" s="5" t="s">
-        <v>773</v>
+        <v>582</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>300</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>673</v>
+      <c r="B301" s="1" t="s">
+        <v>1208</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>674</v>
+        <v>566</v>
       </c>
       <c r="D301" s="1">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F301" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="G301" s="5" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I301" s="1" t="s">
-        <v>675</v>
+        <v>5</v>
+      </c>
+      <c r="J301" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
@@ -15074,7 +15082,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>674</v>
@@ -15086,13 +15094,13 @@
         <v>45</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G302" s="5" t="s">
         <v>1383</v>
       </c>
       <c r="I302" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
@@ -15100,40 +15108,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>1335</v>
+        <v>676</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>584</v>
+        <v>674</v>
       </c>
       <c r="D303" s="1">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>587</v>
+        <v>677</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H303" s="1" t="s">
-        <v>585</v>
+        <v>1383</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J303" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="K303" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="L303" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="N303" s="4" t="s">
-        <v>1467</v>
+        <v>677</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
@@ -15141,40 +15134,40 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>589</v>
+        <v>1335</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>584</v>
       </c>
       <c r="D304" s="1">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>446</v>
+        <v>102</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J304" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>1051</v>
+        <v>1021</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="N304" s="4" t="s">
-        <v>1348</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
@@ -15182,104 +15175,116 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D305" s="1">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>593</v>
+        <v>591</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N305" s="4" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>305</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>599</v>
+      <c r="B306" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D306" s="1">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G306" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="J306" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="K306" s="1" t="s">
-        <v>1036</v>
+        <v>593</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>597</v>
+        <v>1000</v>
       </c>
       <c r="N306" s="4" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D307" s="1">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>453</v>
+        <v>45</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G307" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
+      </c>
+      <c r="J307" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>1036</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>1001</v>
+        <v>597</v>
+      </c>
+      <c r="N307" s="4" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
@@ -15287,7 +15292,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>601</v>
@@ -15298,11 +15303,17 @@
       <c r="E308" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="J308" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="K308" s="1" t="s">
-        <v>1037</v>
+      <c r="F308" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
@@ -15310,10 +15321,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>1342</v>
+        <v>601</v>
       </c>
       <c r="D309" s="1">
         <v>2016</v>
@@ -15321,17 +15332,11 @@
       <c r="E309" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F309" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G309" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H309" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="L309" s="1" t="s">
-        <v>609</v>
+      <c r="J309" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.3">
@@ -15339,10 +15344,10 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>601</v>
+        <v>1342</v>
       </c>
       <c r="D310" s="1">
         <v>2016</v>
@@ -15351,25 +15356,16 @@
         <v>453</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G310" s="5" t="s">
         <v>1382</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="J310" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="K310" s="1" t="s">
-        <v>1038</v>
+        <v>609</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="N310" s="4" t="s">
-        <v>1437</v>
+        <v>609</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
@@ -15377,25 +15373,37 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="D311" s="1">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>45</v>
+        <v>453</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="J311" s="5" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>1269</v>
+        <v>1038</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>1002</v>
+        <v>606</v>
+      </c>
+      <c r="N311" s="4" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
@@ -15403,7 +15411,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1209</v>
+        <v>612</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>611</v>
@@ -15415,53 +15423,47 @@
         <v>45</v>
       </c>
       <c r="J312" s="5" t="s">
-        <v>774</v>
+        <v>613</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>312</v>
       </c>
-      <c r="B313" s="4" t="s">
-        <v>678</v>
+      <c r="B313" s="1" t="s">
+        <v>1209</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D313" s="1">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F313" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="G313" s="5" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I313" s="1" t="s">
-        <v>679</v>
+        <v>45</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>703</v>
+        <v>774</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>1032</v>
+        <v>1270</v>
+      </c>
+      <c r="L313" s="1" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>313</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>616</v>
+      <c r="B314" s="4" t="s">
+        <v>678</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>614</v>
@@ -15472,21 +15474,53 @@
       <c r="E314" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F314" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="J314" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="K314" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D315" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J315" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="K314" s="1" t="s">
+      <c r="K315" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="L314" s="1" t="s">
+      <c r="L315" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O314">
-    <sortCondition ref="C2:C314"/>
-    <sortCondition ref="D2:D314"/>
-    <sortCondition ref="B2:B314"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O315">
+    <sortCondition ref="C2:C315"/>
+    <sortCondition ref="D2:D315"/>
+    <sortCondition ref="B2:B315"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\anomaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35905596-7617-4C29-823E-E6700247B05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B35503-0D1C-44B5-B6CF-F19FE0AFC51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15750" yWindow="4620" windowWidth="21825" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18075" yWindow="510" windowWidth="23610" windowHeight="16575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="1495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="1493">
   <si>
     <t>author</t>
   </si>
@@ -2122,9 +2122,6 @@
     <t>Oleq</t>
   </si>
   <si>
-    <t>saleq_gr1</t>
-  </si>
-  <si>
     <t>Campbell, Hilscher, and Szilagyi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4512,22 +4509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quarterly sales growth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mohanram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Part of G score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Intermediate momentum (7-12)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4896,10 +4877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JKP's version (ebitda_mev) is similar to the original definition but is defined as 1/enterprise multiple. We follow JKP for each item but return 1/ebitda_mev, which is the enterprise multiple.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JKP seem wrong: take diff of dp in the numerator and use sum(at) instead of avg(at) in denominator. We correct these following the original definition.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5080,6 +5057,22 @@
   </si>
   <si>
     <t>trend_factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enterprise_multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise multiple (JKP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the original definition. CZ add dc and omit pstkrv in enterprise value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JKP version. JKP omit pstkrv in enterprise value and use ebitda as the operating income instead of oibdp. Also, ebitda_mev is defined as ebitda / mev, which is 1/ enterprise multiple. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5138,18 +5131,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5164,7 +5151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5177,10 +5164,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5507,8 +5490,8 @@
   <dimension ref="A1:O315"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5533,7 +5516,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -5545,28 +5528,28 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>1482</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1486</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>1488</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>3</v>
@@ -5592,10 +5575,10 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5603,40 +5586,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="D3" s="1">
         <v>1998</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>1388</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1387</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5644,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -5659,22 +5642,22 @@
         <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>1066</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -5697,7 +5680,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -5706,10 +5689,10 @@
         <v>15</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5717,7 +5700,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -5732,7 +5715,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
@@ -5741,16 +5724,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5758,7 +5741,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -5773,7 +5756,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -5782,16 +5765,16 @@
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -5799,7 +5782,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -5814,7 +5797,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
@@ -5823,16 +5806,16 @@
         <v>12</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5852,13 +5835,13 @@
         <v>19</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5878,13 +5861,13 @@
         <v>19</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5904,13 +5887,13 @@
         <v>19</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -5930,13 +5913,13 @@
         <v>19</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -5956,13 +5939,13 @@
         <v>19</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -5982,13 +5965,13 @@
         <v>26</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -5996,7 +5979,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -6008,16 +5991,16 @@
         <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>1109</v>
-      </c>
       <c r="N15" s="4" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -6025,7 +6008,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -6037,25 +6020,25 @@
         <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>1108</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -6066,7 +6049,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D17" s="1">
         <v>2002</v>
@@ -6078,7 +6061,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>30</v>
@@ -6090,10 +6073,10 @@
         <v>33</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -6104,7 +6087,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D18" s="1">
         <v>1986</v>
@@ -6116,13 +6099,13 @@
         <v>35</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -6145,7 +6128,7 @@
         <v>43</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>43</v>
@@ -6154,10 +6137,10 @@
         <v>41</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -6180,7 +6163,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>36</v>
@@ -6192,7 +6175,7 @@
         <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>36</v>
@@ -6215,13 +6198,13 @@
         <v>45</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -6229,10 +6212,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D22" s="1">
         <v>2006</v>
@@ -6244,19 +6227,19 @@
         <v>686</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>686</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -6264,7 +6247,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>47</v>
@@ -6279,7 +6262,7 @@
         <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>53</v>
@@ -6288,13 +6271,13 @@
         <v>54</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -6302,7 +6285,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
@@ -6317,22 +6300,22 @@
         <v>687</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>687</v>
       </c>
       <c r="J24" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>1117</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -6355,7 +6338,7 @@
         <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>49</v>
@@ -6367,13 +6350,13 @@
         <v>52</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -6393,13 +6376,13 @@
         <v>26</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -6422,19 +6405,19 @@
         <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -6457,7 +6440,7 @@
         <v>617</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>617</v>
@@ -6468,7 +6451,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>619</v>
@@ -6483,7 +6466,7 @@
         <v>620</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>620</v>
@@ -6509,7 +6492,7 @@
         <v>621</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>621</v>
@@ -6535,7 +6518,7 @@
         <v>623</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>623</v>
@@ -6546,22 +6529,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D32" s="1">
         <v>2013</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>558</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
@@ -6569,7 +6552,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>641</v>
@@ -6584,7 +6567,7 @@
         <v>652</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>652</v>
@@ -6610,7 +6593,7 @@
         <v>642</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>642</v>
@@ -6636,7 +6619,7 @@
         <v>645</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>645</v>
@@ -6662,7 +6645,7 @@
         <v>647</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>647</v>
@@ -6688,7 +6671,7 @@
         <v>649</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>649</v>
@@ -6714,7 +6697,7 @@
         <v>651</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>651</v>
@@ -6740,7 +6723,7 @@
         <v>689</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>689</v>
@@ -6749,10 +6732,10 @@
         <v>690</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
@@ -6772,25 +6755,25 @@
         <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>692</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
@@ -6813,7 +6796,7 @@
         <v>62</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>58</v>
@@ -6825,7 +6808,7 @@
         <v>63</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>58</v>
@@ -6851,7 +6834,7 @@
         <v>655</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>655</v>
@@ -6877,7 +6860,7 @@
         <v>67</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>65</v>
@@ -6889,13 +6872,13 @@
         <v>68</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -6918,7 +6901,7 @@
         <v>683</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>683</v>
@@ -6927,10 +6910,10 @@
         <v>684</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -6938,7 +6921,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>70</v>
@@ -6953,19 +6936,19 @@
         <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>74</v>
       </c>
       <c r="J45" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>1120</v>
-      </c>
       <c r="L45" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
@@ -6973,7 +6956,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>70</v>
@@ -6988,19 +6971,19 @@
         <v>685</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>685</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
@@ -7023,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>72</v>
@@ -7032,13 +7015,13 @@
         <v>73</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -7061,7 +7044,7 @@
         <v>680</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>680</v>
@@ -7070,13 +7053,13 @@
         <v>77</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -7084,7 +7067,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>76</v>
@@ -7099,7 +7082,7 @@
         <v>80</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>80</v>
@@ -7108,13 +7091,13 @@
         <v>79</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
@@ -7122,7 +7105,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>76</v>
@@ -7137,10 +7120,10 @@
         <v>81</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
@@ -7163,7 +7146,7 @@
         <v>693</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>693</v>
@@ -7172,13 +7155,13 @@
         <v>82</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
@@ -7201,7 +7184,7 @@
         <v>86</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>86</v>
@@ -7210,13 +7193,13 @@
         <v>84</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
@@ -7224,7 +7207,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>76</v>
@@ -7239,10 +7222,10 @@
         <v>87</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
@@ -7265,7 +7248,7 @@
         <v>625</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>625</v>
@@ -7291,7 +7274,7 @@
         <v>628</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>628</v>
@@ -7317,7 +7300,7 @@
         <v>93</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>90</v>
@@ -7329,13 +7312,13 @@
         <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>88</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
@@ -7343,7 +7326,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>97</v>
@@ -7358,7 +7341,7 @@
         <v>98</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>95</v>
@@ -7370,10 +7353,10 @@
         <v>96</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
@@ -7381,7 +7364,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>97</v>
@@ -7393,13 +7376,13 @@
         <v>94</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -7407,7 +7390,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>445</v>
@@ -7422,7 +7405,7 @@
         <v>447</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>444</v>
@@ -7434,13 +7417,13 @@
         <v>448</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
@@ -7448,7 +7431,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>104</v>
@@ -7463,7 +7446,7 @@
         <v>107</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>105</v>
@@ -7475,10 +7458,10 @@
         <v>106</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -7486,7 +7469,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>104</v>
@@ -7498,13 +7481,13 @@
         <v>19</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -7515,13 +7498,13 @@
         <v>409</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="D62" s="1">
         <v>1988</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>408</v>
@@ -7547,7 +7530,7 @@
         <v>115</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>115</v>
@@ -7556,10 +7539,10 @@
         <v>112</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -7582,10 +7565,10 @@
         <v>119</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -7596,7 +7579,7 @@
         <v>110</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D65" s="1">
         <v>2014</v>
@@ -7608,7 +7591,7 @@
         <v>111</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>108</v>
@@ -7617,16 +7600,16 @@
         <v>111</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>108</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -7634,7 +7617,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>121</v>
@@ -7649,7 +7632,7 @@
         <v>124</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>122</v>
@@ -7661,13 +7644,13 @@
         <v>123</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>120</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -7675,7 +7658,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>121</v>
@@ -7687,13 +7670,13 @@
         <v>19</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -7701,7 +7684,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>126</v>
@@ -7716,19 +7699,19 @@
         <v>127</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -7736,7 +7719,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>126</v>
@@ -7751,19 +7734,19 @@
         <v>128</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>128</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -7786,7 +7769,7 @@
         <v>660</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>660</v>
@@ -7812,7 +7795,7 @@
         <v>658</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>658</v>
@@ -7838,7 +7821,7 @@
         <v>133</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>133</v>
@@ -7847,10 +7830,10 @@
         <v>131</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -7858,7 +7841,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>130</v>
@@ -7870,13 +7853,13 @@
         <v>26</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -7899,7 +7882,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>136</v>
@@ -7908,10 +7891,10 @@
         <v>134</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -7919,7 +7902,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>130</v>
@@ -7931,13 +7914,13 @@
         <v>26</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -7945,7 +7928,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>138</v>
@@ -7960,7 +7943,7 @@
         <v>139</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>139</v>
@@ -7969,10 +7952,10 @@
         <v>137</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -7995,7 +7978,7 @@
         <v>142</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>142</v>
@@ -8004,13 +7987,13 @@
         <v>140</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>1223</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -8033,7 +8016,7 @@
         <v>145</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>145</v>
@@ -8042,13 +8025,13 @@
         <v>143</v>
       </c>
       <c r="K78" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="N78" s="4" t="s">
         <v>1223</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -8056,7 +8039,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>147</v>
@@ -8071,7 +8054,7 @@
         <v>148</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>148</v>
@@ -8080,10 +8063,10 @@
         <v>149</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
@@ -8091,7 +8074,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>147</v>
@@ -8106,16 +8089,16 @@
         <v>146</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>146</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -8138,7 +8121,7 @@
         <v>150</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>150</v>
@@ -8152,10 +8135,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D82" s="1">
         <v>2008</v>
@@ -8164,13 +8147,13 @@
         <v>26</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -8181,7 +8164,7 @@
         <v>156</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D83" s="1">
         <v>2008</v>
@@ -8193,10 +8176,10 @@
         <v>155</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -8204,7 +8187,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>158</v>
@@ -8217,16 +8200,16 @@
       </c>
       <c r="F84" s="5"/>
       <c r="J84" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -8234,7 +8217,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>164</v>
@@ -8249,10 +8232,10 @@
         <v>162</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -8260,7 +8243,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>164</v>
@@ -8275,7 +8258,7 @@
         <v>165</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>163</v>
@@ -8284,16 +8267,16 @@
         <v>165</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -8301,7 +8284,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>164</v>
@@ -8313,13 +8296,13 @@
         <v>26</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -8327,10 +8310,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D88" s="1">
         <v>2001</v>
@@ -8342,7 +8325,7 @@
         <v>166</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>166</v>
@@ -8351,16 +8334,16 @@
         <v>166</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>166</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -8368,7 +8351,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>164</v>
@@ -8380,13 +8363,13 @@
         <v>26</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -8409,13 +8392,13 @@
         <v>168</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>168</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -8438,13 +8421,13 @@
         <v>170</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>170</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -8452,7 +8435,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>154</v>
@@ -8467,13 +8450,13 @@
         <v>175</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>175</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -8481,7 +8464,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>154</v>
@@ -8496,7 +8479,7 @@
         <v>176</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>176</v>
@@ -8505,13 +8488,13 @@
         <v>177</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -8519,7 +8502,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>154</v>
@@ -8534,13 +8517,13 @@
         <v>172</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>172</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -8548,10 +8531,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="D95" s="1">
         <v>2001</v>
@@ -8563,7 +8546,7 @@
         <v>173</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>173</v>
@@ -8572,13 +8555,13 @@
         <v>174</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>172</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -8598,13 +8581,13 @@
         <v>26</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -8624,13 +8607,13 @@
         <v>19</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -8638,7 +8621,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>184</v>
@@ -8653,7 +8636,7 @@
         <v>185</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>182</v>
@@ -8665,10 +8648,10 @@
         <v>183</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -8676,7 +8659,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>184</v>
@@ -8688,13 +8671,13 @@
         <v>26</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -8702,7 +8685,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>661</v>
@@ -8714,19 +8697,19 @@
         <v>26</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -8746,13 +8729,13 @@
         <v>19</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -8760,7 +8743,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>188</v>
@@ -8772,22 +8755,22 @@
         <v>26</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>189</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -8795,7 +8778,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>188</v>
@@ -8810,13 +8793,13 @@
         <v>662</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>662</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -8839,10 +8822,10 @@
         <v>190</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -8850,7 +8833,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>193</v>
@@ -8865,7 +8848,7 @@
         <v>194</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>194</v>
@@ -8874,10 +8857,10 @@
         <v>195</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -8885,7 +8868,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>193</v>
@@ -8900,16 +8883,16 @@
         <v>192</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>192</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -8917,7 +8900,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>196</v>
@@ -8929,16 +8912,16 @@
         <v>26</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>197</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -8946,7 +8929,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>196</v>
@@ -8961,7 +8944,7 @@
         <v>663</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>663</v>
@@ -8970,7 +8953,7 @@
         <v>664</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -8993,7 +8976,7 @@
         <v>201</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>201</v>
@@ -9002,10 +8985,10 @@
         <v>198</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -9013,7 +8996,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>205</v>
@@ -9028,7 +9011,7 @@
         <v>206</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>206</v>
@@ -9037,10 +9020,10 @@
         <v>204</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
@@ -9048,7 +9031,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>205</v>
@@ -9063,7 +9046,7 @@
         <v>202</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>202</v>
@@ -9072,7 +9055,7 @@
         <v>202</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -9080,7 +9063,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>205</v>
@@ -9092,13 +9075,13 @@
         <v>5</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -9106,7 +9089,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>207</v>
@@ -9121,7 +9104,7 @@
         <v>212</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>212</v>
@@ -9130,13 +9113,13 @@
         <v>211</v>
       </c>
       <c r="K113" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="N113" s="4" t="s">
         <v>1226</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -9144,7 +9127,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>207</v>
@@ -9159,10 +9142,10 @@
         <v>213</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -9170,7 +9153,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>207</v>
@@ -9185,7 +9168,7 @@
         <v>209</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>209</v>
@@ -9194,10 +9177,10 @@
         <v>208</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -9205,7 +9188,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>207</v>
@@ -9220,10 +9203,10 @@
         <v>210</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -9243,13 +9226,13 @@
         <v>26</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -9257,7 +9240,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>217</v>
@@ -9273,13 +9256,13 @@
         <v>216</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -9302,19 +9285,19 @@
         <v>220</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>220</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -9322,10 +9305,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D120" s="1">
         <v>2002</v>
@@ -9337,10 +9320,10 @@
         <v>221</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9351,7 +9334,7 @@
         <v>222</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D121" s="1">
         <v>2004</v>
@@ -9363,16 +9346,16 @@
         <v>223</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>223</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
@@ -9380,7 +9363,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>224</v>
@@ -9393,19 +9376,19 @@
       </c>
       <c r="F122" s="5"/>
       <c r="H122" s="1" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="J122" s="5" t="s">
         <v>225</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="123" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9428,12 +9411,12 @@
         <v>226</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="N123" s="10"/>
+        <v>868</v>
+      </c>
+      <c r="N123" s="8"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
@@ -9456,10 +9439,10 @@
         <v>228</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>228</v>
@@ -9486,10 +9469,10 @@
         <v>231</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L125" s="1" t="s">
         <v>231</v>
@@ -9515,7 +9498,7 @@
         <v>237</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>233</v>
@@ -9527,13 +9510,13 @@
         <v>234</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -9556,7 +9539,7 @@
         <v>241</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>241</v>
@@ -9565,10 +9548,10 @@
         <v>239</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
@@ -9576,7 +9559,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>238</v>
@@ -9588,13 +9571,13 @@
         <v>26</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
@@ -9617,7 +9600,7 @@
         <v>245</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>245</v>
@@ -9626,10 +9609,10 @@
         <v>243</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -9637,7 +9620,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>238</v>
@@ -9652,18 +9635,18 @@
         <v>246</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>1410</v>
+      <c r="B131" s="9" t="s">
+        <v>1405</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>238</v>
@@ -9678,7 +9661,7 @@
         <v>249</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>249</v>
@@ -9687,18 +9670,18 @@
         <v>248</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" s="12" t="s">
-        <v>1411</v>
+      <c r="B132" s="10" t="s">
+        <v>1406</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>238</v>
@@ -9713,16 +9696,16 @@
         <v>247</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>247</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="133" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9730,7 +9713,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>238</v>
@@ -9745,7 +9728,7 @@
         <v>694</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>694</v>
@@ -9754,13 +9737,13 @@
         <v>250</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
@@ -9768,7 +9751,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>238</v>
@@ -9783,10 +9766,10 @@
         <v>695</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
@@ -9794,7 +9777,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>252</v>
@@ -9809,24 +9792,24 @@
         <v>255</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>255</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" s="12" t="s">
-        <v>1371</v>
+      <c r="B136" s="10" t="s">
+        <v>1366</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>252</v>
@@ -9841,30 +9824,30 @@
         <v>253</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>253</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>251</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>1372</v>
+      <c r="B137" s="9" t="s">
+        <v>1367</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>252</v>
@@ -9879,22 +9862,22 @@
         <v>254</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>254</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="L137" s="1" t="s">
         <v>251</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -9902,7 +9885,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>258</v>
@@ -9917,7 +9900,7 @@
         <v>259</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>259</v>
@@ -9926,13 +9909,13 @@
         <v>260</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
@@ -9955,10 +9938,10 @@
         <v>264</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
@@ -9981,22 +9964,22 @@
         <v>267</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>267</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
@@ -10004,7 +9987,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>266</v>
@@ -10019,7 +10002,7 @@
         <v>275</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>275</v>
@@ -10028,13 +10011,13 @@
         <v>268</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
@@ -10042,7 +10025,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>266</v>
@@ -10054,22 +10037,22 @@
         <v>5</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="J142" s="5" t="s">
         <v>269</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
@@ -10092,10 +10075,10 @@
         <v>272</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -10103,7 +10086,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>266</v>
@@ -10118,7 +10101,7 @@
         <v>274</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>274</v>
@@ -10147,10 +10130,10 @@
         <v>270</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
@@ -10173,10 +10156,10 @@
         <v>261</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
@@ -10184,7 +10167,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>266</v>
@@ -10196,13 +10179,13 @@
         <v>59</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
@@ -10225,10 +10208,10 @@
         <v>279</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
@@ -10251,10 +10234,10 @@
         <v>277</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -10277,7 +10260,7 @@
         <v>283</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>283</v>
@@ -10286,10 +10269,10 @@
         <v>281</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
@@ -10297,7 +10280,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>276</v>
@@ -10312,10 +10295,10 @@
         <v>284</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
@@ -10338,10 +10321,10 @@
         <v>286</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
@@ -10364,10 +10347,10 @@
         <v>288</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
@@ -10375,10 +10358,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D154" s="1">
         <v>2014</v>
@@ -10390,19 +10373,19 @@
         <v>290</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>290</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
@@ -10425,7 +10408,7 @@
         <v>293</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>293</v>
@@ -10434,10 +10417,10 @@
         <v>294</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
@@ -10445,7 +10428,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>632</v>
@@ -10460,7 +10443,7 @@
         <v>631</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>631</v>
@@ -10471,10 +10454,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D157" s="1">
         <v>2003</v>
@@ -10486,10 +10469,10 @@
         <v>296</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
@@ -10512,18 +10495,18 @@
         <v>300</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" s="11" t="s">
-        <v>1417</v>
+      <c r="B159" s="9" t="s">
+        <v>1412</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>304</v>
@@ -10535,24 +10518,24 @@
         <v>5</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" s="12" t="s">
-        <v>1418</v>
+      <c r="B160" s="10" t="s">
+        <v>1413</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>304</v>
@@ -10567,7 +10550,7 @@
         <v>302</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>302</v>
@@ -10576,13 +10559,13 @@
         <v>303</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
@@ -10605,7 +10588,7 @@
         <v>307</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>307</v>
@@ -10614,13 +10597,13 @@
         <v>305</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
@@ -10631,7 +10614,7 @@
         <v>310</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D162" s="1">
         <v>2009</v>
@@ -10643,7 +10626,7 @@
         <v>312</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>308</v>
@@ -10655,7 +10638,7 @@
         <v>311</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L162" s="1" t="s">
         <v>308</v>
@@ -10666,7 +10649,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>309</v>
@@ -10681,10 +10664,10 @@
         <v>313</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
@@ -10692,22 +10675,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="D164" s="5">
         <v>2016</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
@@ -10730,7 +10713,7 @@
         <v>316</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>316</v>
@@ -10739,7 +10722,7 @@
         <v>317</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>314</v>
@@ -10765,7 +10748,7 @@
         <v>321</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>321</v>
@@ -10774,13 +10757,13 @@
         <v>320</v>
       </c>
       <c r="K166" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="N166" s="4" t="s">
         <v>1238</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="N166" s="4" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
@@ -10800,13 +10783,13 @@
         <v>19</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
@@ -10814,7 +10797,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>318</v>
@@ -10829,13 +10812,13 @@
         <v>323</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>323</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
@@ -10846,7 +10829,7 @@
         <v>328</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D169" s="1">
         <v>1984</v>
@@ -10855,13 +10838,13 @@
         <v>94</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
@@ -10885,13 +10868,13 @@
         <v>159</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
@@ -10914,7 +10897,7 @@
         <v>359</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I171" s="1" t="s">
         <v>359</v>
@@ -10923,10 +10906,10 @@
         <v>357</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
@@ -10949,7 +10932,7 @@
         <v>332</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>332</v>
@@ -10958,10 +10941,10 @@
         <v>330</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
@@ -10984,7 +10967,7 @@
         <v>346</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>346</v>
@@ -10993,10 +10976,10 @@
         <v>347</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
@@ -11019,7 +11002,7 @@
         <v>334</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>334</v>
@@ -11028,10 +11011,10 @@
         <v>335</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
@@ -11054,7 +11037,7 @@
         <v>349</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>349</v>
@@ -11063,10 +11046,10 @@
         <v>350</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
@@ -11089,7 +11072,7 @@
         <v>337</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>337</v>
@@ -11098,10 +11081,10 @@
         <v>338</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
@@ -11124,7 +11107,7 @@
         <v>352</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>352</v>
@@ -11133,10 +11116,10 @@
         <v>353</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
@@ -11159,7 +11142,7 @@
         <v>340</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>340</v>
@@ -11168,10 +11151,10 @@
         <v>341</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
@@ -11194,7 +11177,7 @@
         <v>355</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>355</v>
@@ -11203,10 +11186,10 @@
         <v>356</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
@@ -11229,7 +11212,7 @@
         <v>343</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>343</v>
@@ -11238,10 +11221,10 @@
         <v>344</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
@@ -11249,10 +11232,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D181" s="1">
         <v>2013</v>
@@ -11264,10 +11247,10 @@
         <v>360</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
@@ -11275,10 +11258,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D182" s="1">
         <v>2013</v>
@@ -11290,10 +11273,10 @@
         <v>361</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
@@ -11301,7 +11284,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>362</v>
@@ -11316,7 +11299,7 @@
         <v>366</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>366</v>
@@ -11325,13 +11308,13 @@
         <v>365</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L183" s="1" t="s">
         <v>365</v>
       </c>
       <c r="N183" s="4" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
@@ -11339,7 +11322,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>362</v>
@@ -11354,7 +11337,7 @@
         <v>364</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>364</v>
@@ -11363,13 +11346,13 @@
         <v>363</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="N184" s="4" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
@@ -11377,7 +11360,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>368</v>
@@ -11392,7 +11375,7 @@
         <v>369</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>369</v>
@@ -11406,7 +11389,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>368</v>
@@ -11421,13 +11404,13 @@
         <v>367</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>367</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
@@ -11435,7 +11418,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>370</v>
@@ -11450,13 +11433,13 @@
         <v>371</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>371</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
@@ -11476,13 +11459,13 @@
         <v>45</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
@@ -11502,13 +11485,13 @@
         <v>45</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
@@ -11516,7 +11499,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>375</v>
@@ -11528,13 +11511,13 @@
         <v>19</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
@@ -11542,7 +11525,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>376</v>
@@ -11557,7 +11540,7 @@
         <v>377</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>377</v>
@@ -11566,10 +11549,10 @@
         <v>103</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
@@ -11577,7 +11560,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>376</v>
@@ -11592,10 +11575,10 @@
         <v>380</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
@@ -11615,19 +11598,19 @@
         <v>45</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J193" s="5" t="s">
         <v>378</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
@@ -11635,7 +11618,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>381</v>
@@ -11647,19 +11630,19 @@
         <v>26</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="J194" s="5" t="s">
         <v>385</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
@@ -11667,7 +11650,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>381</v>
@@ -11679,10 +11662,10 @@
         <v>26</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>382</v>
@@ -11691,10 +11674,10 @@
         <v>383</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
@@ -11702,7 +11685,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>381</v>
@@ -11714,19 +11697,19 @@
         <v>26</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="J196" s="5" t="s">
         <v>384</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
@@ -11734,7 +11717,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>634</v>
@@ -11749,7 +11732,7 @@
         <v>635</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>633</v>
@@ -11761,10 +11744,10 @@
         <v>636</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
@@ -11787,7 +11770,7 @@
         <v>327</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>324</v>
@@ -11796,16 +11779,16 @@
         <v>327</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
@@ -11816,7 +11799,7 @@
         <v>388</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D199" s="1">
         <v>1990</v>
@@ -11828,7 +11811,7 @@
         <v>389</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>386</v>
@@ -11840,10 +11823,10 @@
         <v>387</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -11866,7 +11849,7 @@
         <v>393</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>393</v>
@@ -11875,13 +11858,13 @@
         <v>394</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="N200" s="4" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
@@ -11904,7 +11887,7 @@
         <v>398</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>397</v>
@@ -11916,10 +11899,10 @@
         <v>399</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
@@ -11927,7 +11910,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>395</v>
@@ -11942,7 +11925,7 @@
         <v>665</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>665</v>
@@ -11968,7 +11951,7 @@
         <v>402</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>401</v>
@@ -11980,10 +11963,10 @@
         <v>403</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
@@ -11991,7 +11974,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>395</v>
@@ -12006,7 +11989,7 @@
         <v>666</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>666</v>
@@ -12032,7 +12015,7 @@
         <v>99</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>99</v>
@@ -12041,13 +12024,13 @@
         <v>99</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
@@ -12055,22 +12038,22 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D206" s="1">
         <v>2009</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>391</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>391</v>
@@ -12093,13 +12076,13 @@
         <v>45</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
@@ -12107,23 +12090,23 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="C208" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="D208" s="5">
         <v>2008</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="F208" s="5"/>
       <c r="H208" s="1" t="s">
         <v>157</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.3">
@@ -12146,10 +12129,10 @@
         <v>410</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.3">
@@ -12157,7 +12140,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>406</v>
@@ -12169,13 +12152,13 @@
         <v>26</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.3">
@@ -12183,7 +12166,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>412</v>
@@ -12198,7 +12181,7 @@
         <v>417</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>415</v>
@@ -12210,7 +12193,7 @@
         <v>416</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="L211" s="1" t="s">
         <v>415</v>
@@ -12221,7 +12204,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>412</v>
@@ -12233,13 +12216,13 @@
         <v>26</v>
       </c>
       <c r="J212" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.3">
@@ -12262,7 +12245,7 @@
         <v>413</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>413</v>
@@ -12271,10 +12254,10 @@
         <v>411</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
@@ -12282,7 +12265,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>412</v>
@@ -12294,13 +12277,13 @@
         <v>26</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.3">
@@ -12308,7 +12291,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>412</v>
@@ -12323,10 +12306,10 @@
         <v>414</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.3">
@@ -12334,7 +12317,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>412</v>
@@ -12349,7 +12332,7 @@
         <v>667</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I216" s="1" t="s">
         <v>667</v>
@@ -12360,7 +12343,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>419</v>
@@ -12375,7 +12358,7 @@
         <v>420</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I217" s="1" t="s">
         <v>420</v>
@@ -12384,13 +12367,13 @@
         <v>418</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N217" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.3">
@@ -12398,7 +12381,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>419</v>
@@ -12413,10 +12396,10 @@
         <v>421</v>
       </c>
       <c r="K218" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.3">
@@ -12443,86 +12426,86 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="13" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C220" s="8" t="s">
+      <c r="B220" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D220" s="8">
+      <c r="D220" s="6">
         <v>2004</v>
       </c>
-      <c r="E220" s="8" t="s">
+      <c r="E220" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F220" s="8" t="s">
+      <c r="F220" s="6" t="s">
         <v>425</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H220" s="8"/>
-      <c r="I220" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="J220" s="17" t="s">
+      <c r="J220" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="K220" s="8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="L220" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="M220" s="8"/>
-      <c r="N220" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="O220" s="17"/>
+      <c r="K220" s="6" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L220" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="M220" s="6"/>
+      <c r="N220" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="O220" s="15"/>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" s="13" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C221" s="8" t="s">
+      <c r="B221" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D221" s="8">
+      <c r="D221" s="6">
         <v>2004</v>
       </c>
-      <c r="E221" s="8" t="s">
+      <c r="E221" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F221" s="8" t="s">
+      <c r="F221" s="6" t="s">
         <v>423</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H221" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H221" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="I221" s="8"/>
-      <c r="J221" s="17"/>
-      <c r="K221" s="8"/>
-      <c r="L221" s="8" t="s">
-        <v>944</v>
-      </c>
-      <c r="M221" s="8"/>
-      <c r="N221" s="9" t="s">
-        <v>1347</v>
-      </c>
-      <c r="O221" s="17"/>
-    </row>
-    <row r="222" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I221" s="6"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="M221" s="6"/>
+      <c r="N221" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O221" s="15"/>
+    </row>
+    <row r="222" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>422</v>
@@ -12542,13 +12525,13 @@
       </c>
       <c r="K222" s="1"/>
       <c r="L222" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M222" s="1"/>
       <c r="N222" s="4"/>
       <c r="O222" s="5"/>
     </row>
-    <row r="223" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -12568,88 +12551,88 @@
         <v>429</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="5" t="s">
         <v>429</v>
       </c>
       <c r="J223" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K223" s="5"/>
       <c r="L223" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="M223" s="5"/>
-      <c r="N223" s="10"/>
+      <c r="N223" s="8"/>
       <c r="O223" s="5"/>
     </row>
-    <row r="224" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="15" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C224" s="15" t="s">
+      <c r="B224" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C224" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D224" s="15">
+      <c r="D224" s="13">
         <v>1979</v>
       </c>
-      <c r="E224" s="15" t="s">
+      <c r="E224" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F224" s="15" t="s">
-        <v>1458</v>
-      </c>
-      <c r="G224" s="15" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I224" s="15" t="s">
+      <c r="F224" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G224" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I224" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="J224" s="15" t="s">
+      <c r="J224" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="K224" s="15" t="s">
-        <v>784</v>
-      </c>
-      <c r="L224" s="15" t="s">
-        <v>1457</v>
-      </c>
-      <c r="N224" s="16" t="s">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K224" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="L224" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N224" s="14" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225" s="15" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C225" s="15" t="s">
+      <c r="B225" s="13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C225" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D225" s="15">
+      <c r="D225" s="13">
         <v>1979</v>
       </c>
-      <c r="E225" s="15" t="s">
+      <c r="E225" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F225" s="15" t="s">
+      <c r="F225" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="G225" s="15" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H225" s="15" t="s">
+      <c r="G225" s="13" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H225" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="N225" s="16" t="s">
-        <v>1459</v>
+      <c r="N225" s="14" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="226" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12657,7 +12640,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>430</v>
@@ -12669,22 +12652,22 @@
         <v>26</v>
       </c>
       <c r="J226" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K226" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="L226" s="5" t="s">
-        <v>947</v>
-      </c>
-      <c r="N226" s="10"/>
-    </row>
-    <row r="227" spans="1:15" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>946</v>
+      </c>
+      <c r="N226" s="8"/>
+    </row>
+    <row r="227" spans="1:15" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>435</v>
@@ -12699,7 +12682,7 @@
         <v>438</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H227" s="5" t="s">
         <v>434</v>
@@ -12711,14 +12694,14 @@
         <v>439</v>
       </c>
       <c r="K227" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="M227" s="5"/>
-      <c r="N227" s="10" t="s">
-        <v>1476</v>
+      <c r="N227" s="8" t="s">
+        <v>1470</v>
       </c>
       <c r="O227" s="5"/>
     </row>
@@ -12727,7 +12710,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>435</v>
@@ -12742,7 +12725,7 @@
         <v>436</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I228" s="5" t="s">
         <v>436</v>
@@ -12751,13 +12734,13 @@
         <v>437</v>
       </c>
       <c r="K228" s="5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L228" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="N228" s="10" t="s">
-        <v>1476</v>
+      <c r="N228" s="8" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="229" spans="1:15" ht="33" x14ac:dyDescent="0.3">
@@ -12765,7 +12748,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>435</v>
@@ -12780,7 +12763,7 @@
         <v>440</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>440</v>
@@ -12789,13 +12772,13 @@
         <v>441</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="N229" s="10" t="s">
-        <v>1476</v>
+        <v>948</v>
+      </c>
+      <c r="N229" s="8" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.3">
@@ -12818,10 +12801,10 @@
         <v>451</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.3">
@@ -12829,10 +12812,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="D231" s="1">
         <v>1995</v>
@@ -12841,21 +12824,21 @@
         <v>26</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>452</v>
@@ -12867,33 +12850,30 @@
         <v>453</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1244</v>
+        <v>1489</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>1244</v>
+        <v>1377</v>
       </c>
       <c r="J232" s="5" t="s">
         <v>454</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1192</v>
+        <v>1490</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>452</v>
@@ -12904,14 +12884,17 @@
       <c r="E233" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="J233" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="K233" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="L233" s="1" t="s">
-        <v>952</v>
+      <c r="F233" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N233" s="4" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.3">
@@ -12919,45 +12902,36 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D234" s="1">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J234" s="5" t="s">
-        <v>459</v>
+        <v>762</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>1276</v>
+        <v>1245</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1333</v>
+        <v>1192</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1334</v>
+        <v>456</v>
       </c>
       <c r="D235" s="1">
         <v>2008</v>
@@ -12966,51 +12940,60 @@
         <v>45</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>1247</v>
+        <v>1275</v>
       </c>
       <c r="L235" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="N235" s="4" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>461</v>
+        <v>1332</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>460</v>
+        <v>1333</v>
       </c>
       <c r="D236" s="1">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>764</v>
+        <v>455</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>1275</v>
+        <v>1246</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
+      </c>
+      <c r="N236" s="4" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.3">
@@ -13018,7 +13001,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>460</v>
@@ -13030,13 +13013,13 @@
         <v>26</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.3">
@@ -13044,31 +13027,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D238" s="1">
-        <v>1995</v>
+        <v>2010</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G238" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>463</v>
+      <c r="J238" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>1274</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="N238" s="4" t="s">
-        <v>1061</v>
+        <v>955</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.3">
@@ -13076,7 +13053,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>465</v>
@@ -13088,19 +13065,19 @@
         <v>26</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G239" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="N239" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.3">
@@ -13108,34 +13085,31 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>129</v>
+        <v>467</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>668</v>
+        <v>465</v>
       </c>
       <c r="D240" s="1">
-        <v>1982</v>
+        <v>1995</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1490</v>
+        <v>466</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="J240" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="K240" s="1" t="s">
-        <v>1274</v>
+        <v>1123</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>957</v>
       </c>
       <c r="N240" s="4" t="s">
-        <v>1491</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -13143,63 +13117,64 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>469</v>
+        <v>129</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>468</v>
+        <v>668</v>
       </c>
       <c r="D241" s="1">
-        <v>2005</v>
+        <v>1982</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F241" s="5"/>
-      <c r="H241" s="1" t="s">
-        <v>470</v>
+        <v>109</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>1484</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>471</v>
+        <v>669</v>
       </c>
       <c r="K241" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="L241" s="1" t="s">
-        <v>959</v>
+      <c r="N241" s="4" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="7" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D242" s="6">
+      <c r="B242" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D242" s="1">
         <v>2005</v>
       </c>
-      <c r="E242" s="6" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="G242" s="6" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H242" s="6"/>
-      <c r="I242" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="J242" s="6"/>
-      <c r="K242" s="6"/>
-      <c r="L242" s="6"/>
-      <c r="M242" s="6"/>
-      <c r="N242" s="7" t="s">
-        <v>1354</v>
+      <c r="E242" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F242" s="5"/>
+      <c r="H242" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="243" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
@@ -13219,25 +13194,25 @@
         <v>19</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>298</v>
       </c>
       <c r="J243" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N243" s="4" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -13260,7 +13235,7 @@
         <v>482</v>
       </c>
       <c r="G244" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>482</v>
@@ -13269,13 +13244,13 @@
         <v>481</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N244" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -13283,7 +13258,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>472</v>
@@ -13298,10 +13273,10 @@
         <v>483</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -13309,7 +13284,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>472</v>
@@ -13321,19 +13296,19 @@
         <v>478</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>479</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -13356,22 +13331,22 @@
         <v>475</v>
       </c>
       <c r="G247" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>475</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N247" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
@@ -13394,7 +13369,7 @@
         <v>681</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>473</v>
@@ -13406,13 +13381,13 @@
         <v>476</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N248" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -13420,7 +13395,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>472</v>
@@ -13435,10 +13410,10 @@
         <v>682</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -13446,7 +13421,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>484</v>
@@ -13461,7 +13436,7 @@
         <v>486</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>486</v>
@@ -13470,13 +13445,13 @@
         <v>485</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N250" s="4" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -13484,7 +13459,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>484</v>
@@ -13499,10 +13474,10 @@
         <v>487</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -13510,7 +13485,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>484</v>
@@ -13525,7 +13500,7 @@
         <v>489</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>489</v>
@@ -13534,13 +13509,13 @@
         <v>488</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N252" s="4" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -13548,7 +13523,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>484</v>
@@ -13563,10 +13538,10 @@
         <v>490</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
@@ -13589,7 +13564,7 @@
         <v>491</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>491</v>
@@ -13603,7 +13578,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>492</v>
@@ -13618,7 +13593,7 @@
         <v>496</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>496</v>
@@ -13647,7 +13622,7 @@
         <v>497</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>497</v>
@@ -13676,7 +13651,7 @@
         <v>499</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>499</v>
@@ -13705,7 +13680,7 @@
         <v>494</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>494</v>
@@ -13734,7 +13709,7 @@
         <v>501</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>501</v>
@@ -13763,7 +13738,7 @@
         <v>503</v>
       </c>
       <c r="G260" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>503</v>
@@ -13792,7 +13767,7 @@
         <v>505</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>505</v>
@@ -13821,7 +13796,7 @@
         <v>507</v>
       </c>
       <c r="G262" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>507</v>
@@ -13850,7 +13825,7 @@
         <v>512</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>510</v>
@@ -13859,13 +13834,13 @@
         <v>512</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
@@ -13885,10 +13860,10 @@
         <v>109</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
@@ -13911,7 +13886,7 @@
         <v>517</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>517</v>
@@ -13920,10 +13895,10 @@
         <v>518</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
@@ -13931,7 +13906,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>516</v>
@@ -13943,13 +13918,13 @@
         <v>446</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
@@ -13972,7 +13947,7 @@
         <v>521</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>521</v>
@@ -13981,10 +13956,10 @@
         <v>519</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
@@ -13992,7 +13967,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>516</v>
@@ -14004,21 +13979,21 @@
         <v>446</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="12" t="s">
-        <v>1428</v>
+      <c r="B269" s="10" t="s">
+        <v>1423</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>522</v>
@@ -14033,7 +14008,7 @@
         <v>525</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>525</v>
@@ -14042,18 +14017,18 @@
         <v>524</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="12" t="s">
-        <v>1429</v>
+      <c r="B270" s="10" t="s">
+        <v>1424</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>522</v>
@@ -14068,16 +14043,16 @@
         <v>523</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>523</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="N270" s="4" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
@@ -14085,7 +14060,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>522</v>
@@ -14100,18 +14075,18 @@
         <v>526</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="11" t="s">
-        <v>1432</v>
+      <c r="B272" s="9" t="s">
+        <v>1427</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>527</v>
@@ -14123,27 +14098,27 @@
         <v>26</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>530</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N272" s="4" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="11" t="s">
-        <v>1431</v>
+      <c r="B273" s="9" t="s">
+        <v>1426</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>527</v>
@@ -14158,7 +14133,7 @@
         <v>528</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>528</v>
@@ -14167,10 +14142,10 @@
         <v>529</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N273" s="4" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
@@ -14181,7 +14156,7 @@
         <v>531</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D274" s="1">
         <v>2003</v>
@@ -14193,7 +14168,7 @@
         <v>532</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
@@ -14204,13 +14179,13 @@
         <v>257</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="D275" s="5">
         <v>1982</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="G275" s="5"/>
       <c r="H275" s="1" t="s">
@@ -14234,28 +14209,28 @@
         <v>59</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>540</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="J276" s="5" t="s">
         <v>442</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="N276" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
@@ -14263,7 +14238,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>533</v>
@@ -14278,7 +14253,7 @@
         <v>546</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>546</v>
@@ -14287,10 +14262,10 @@
         <v>545</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
@@ -14313,7 +14288,7 @@
         <v>539</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>539</v>
@@ -14322,10 +14297,10 @@
         <v>537</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
@@ -14348,7 +14323,7 @@
         <v>536</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>536</v>
@@ -14357,10 +14332,10 @@
         <v>535</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
@@ -14368,7 +14343,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>533</v>
@@ -14383,7 +14358,7 @@
         <v>544</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>544</v>
@@ -14392,13 +14367,13 @@
         <v>543</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="N280" s="4" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
@@ -14421,13 +14396,13 @@
         <v>541</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>541</v>
       </c>
       <c r="N281" s="4" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
@@ -14450,7 +14425,7 @@
         <v>549</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>549</v>
@@ -14459,10 +14434,10 @@
         <v>548</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
@@ -14485,7 +14460,7 @@
         <v>670</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>670</v>
@@ -14494,7 +14469,7 @@
         <v>576</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
@@ -14517,7 +14492,7 @@
         <v>672</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>672</v>
@@ -14526,10 +14501,10 @@
         <v>574</v>
       </c>
       <c r="K284" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N284" s="4" t="s">
         <v>1262</v>
-      </c>
-      <c r="N284" s="4" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
@@ -14549,22 +14524,22 @@
         <v>59</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="J285" s="5" t="s">
         <v>570</v>
       </c>
       <c r="K285" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N285" s="4" t="s">
         <v>1262</v>
-      </c>
-      <c r="N285" s="4" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
@@ -14587,7 +14562,7 @@
         <v>671</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>671</v>
@@ -14596,10 +14571,10 @@
         <v>572</v>
       </c>
       <c r="K286" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="N286" s="4" t="s">
         <v>1262</v>
-      </c>
-      <c r="N286" s="4" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
@@ -14622,7 +14597,7 @@
         <v>552</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>552</v>
@@ -14631,10 +14606,10 @@
         <v>550</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
@@ -14654,22 +14629,22 @@
         <v>59</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J288" s="5" t="s">
         <v>554</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
@@ -14677,7 +14652,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>556</v>
@@ -14689,13 +14664,13 @@
         <v>26</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
@@ -14703,7 +14678,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>556</v>
@@ -14718,7 +14693,7 @@
         <v>559</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>557</v>
@@ -14730,13 +14705,13 @@
         <v>242</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N290" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
@@ -14744,7 +14719,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>560</v>
@@ -14760,15 +14735,15 @@
         <v>561</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="292" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="11" t="s">
-        <v>1465</v>
+      <c r="B292" s="9" t="s">
+        <v>1459</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>562</v>
@@ -14783,21 +14758,21 @@
         <v>565</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>565</v>
       </c>
       <c r="N292" s="4" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="11" t="s">
-        <v>1464</v>
+      <c r="B293" s="9" t="s">
+        <v>1458</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>562</v>
@@ -14812,7 +14787,7 @@
         <v>563</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>563</v>
@@ -14821,13 +14796,13 @@
         <v>564</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="N293" s="4" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
@@ -14835,7 +14810,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>566</v>
@@ -14850,7 +14825,7 @@
         <v>568</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I294" s="1" t="s">
         <v>568</v>
@@ -14859,10 +14834,10 @@
         <v>567</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.3">
@@ -14870,7 +14845,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>566</v>
@@ -14882,13 +14857,13 @@
         <v>5</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K295" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="296" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14896,7 +14871,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>566</v>
@@ -14908,19 +14883,19 @@
         <v>5</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H296" s="5" t="s">
         <v>569</v>
       </c>
       <c r="L296" s="5" t="s">
-        <v>1443</v>
-      </c>
-      <c r="N296" s="10" t="s">
-        <v>1440</v>
+        <v>1438</v>
+      </c>
+      <c r="N296" s="8" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="297" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14928,7 +14903,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>566</v>
@@ -14940,19 +14915,19 @@
         <v>5</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H297" s="5" t="s">
         <v>578</v>
       </c>
       <c r="L297" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="N297" s="10" t="s">
-        <v>1440</v>
+        <v>992</v>
+      </c>
+      <c r="N297" s="8" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
@@ -14975,7 +14950,7 @@
         <v>581</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>581</v>
@@ -14984,10 +14959,10 @@
         <v>579</v>
       </c>
       <c r="K298" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
@@ -14995,7 +14970,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>566</v>
@@ -15007,13 +14982,13 @@
         <v>5</v>
       </c>
       <c r="J299" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
@@ -15033,22 +15008,22 @@
         <v>5</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J300" s="5" t="s">
         <v>582</v>
       </c>
       <c r="K300" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
@@ -15056,7 +15031,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>566</v>
@@ -15068,13 +15043,13 @@
         <v>5</v>
       </c>
       <c r="J301" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K301" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
@@ -15097,7 +15072,7 @@
         <v>675</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>675</v>
@@ -15123,7 +15098,7 @@
         <v>677</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>677</v>
@@ -15134,7 +15109,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>584</v>
@@ -15149,7 +15124,7 @@
         <v>587</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>585</v>
@@ -15161,13 +15136,13 @@
         <v>586</v>
       </c>
       <c r="K304" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N304" s="4" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
@@ -15190,7 +15165,7 @@
         <v>588</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>588</v>
@@ -15202,13 +15177,13 @@
         <v>591</v>
       </c>
       <c r="K305" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="N305" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.3">
@@ -15231,7 +15206,7 @@
         <v>596</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>592</v>
@@ -15243,10 +15218,10 @@
         <v>593</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="N306" s="4" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="307" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -15269,7 +15244,7 @@
         <v>597</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>597</v>
@@ -15278,13 +15253,13 @@
         <v>600</v>
       </c>
       <c r="K307" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L307" s="1" t="s">
         <v>597</v>
       </c>
       <c r="N307" s="4" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
@@ -15307,13 +15282,13 @@
         <v>603</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>603</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
@@ -15336,7 +15311,7 @@
         <v>604</v>
       </c>
       <c r="K309" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.3">
@@ -15347,7 +15322,7 @@
         <v>610</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D310" s="1">
         <v>2016</v>
@@ -15359,7 +15334,7 @@
         <v>609</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>609</v>
@@ -15388,7 +15363,7 @@
         <v>606</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>606</v>
@@ -15397,13 +15372,13 @@
         <v>608</v>
       </c>
       <c r="K311" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L311" s="1" t="s">
         <v>606</v>
       </c>
       <c r="N311" s="4" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
@@ -15426,10 +15401,10 @@
         <v>613</v>
       </c>
       <c r="K312" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
@@ -15437,7 +15412,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>611</v>
@@ -15449,13 +15424,13 @@
         <v>45</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K313" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
@@ -15478,16 +15453,16 @@
         <v>679</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="I314" s="1" t="s">
         <v>679</v>
       </c>
       <c r="J314" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K314" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.3">
@@ -15510,10 +15485,10 @@
         <v>615</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
